--- a/03.設計/設定値定義書_STB99（CONFIG）.xlsx
+++ b/03.設計/設定値定義書_STB99（CONFIG）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micch\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micch\OneDrive\デスクトップ\PGP\03.設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14484" tabRatio="888"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13212" tabRatio="888"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="159" r:id="rId1"/>
@@ -1239,33 +1239,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>株式会社シスコム・テクノロジー</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開発一課</t>
-    <rPh sb="0" eb="2">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田坂</t>
-    <rPh sb="0" eb="2">
-      <t>タサカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>フォーマット</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1285,6 +1258,24 @@
   </si>
   <si>
     <t>データベース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社名</t>
+    <rPh sb="0" eb="2">
+      <t>シャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TM</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1845,6 +1836,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1854,8 +1872,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1866,31 +1905,115 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1908,35 +2031,20 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1956,25 +2064,25 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1985,123 +2093,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2482,69 +2473,69 @@
     </row>
     <row r="6" spans="3:16" ht="49.2" customHeight="1">
       <c r="C6" s="7"/>
-      <c r="D6" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
+      <c r="D6" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="3:16" ht="49.2" customHeight="1">
       <c r="C7" s="7"/>
-      <c r="D7" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
+      <c r="D7" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
       <c r="C8" s="9"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="11" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F11" s="110" t="s">
+      <c r="F11" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F12" s="110" t="s">
+      <c r="F12" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="111"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="16"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -2554,56 +2545,56 @@
       <c r="N12" s="11"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F14" s="110" t="s">
+      <c r="F14" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="111"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F15" s="110" t="s">
+      <c r="F15" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="111"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F16" s="110" t="s">
+      <c r="F16" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="111"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
       <c r="N16" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="7:16" ht="22.5" customHeight="1">
       <c r="N17" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="7:16" ht="22.5" customHeight="1">
       <c r="N18" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="7:16" ht="22.5" customHeight="1">
@@ -2665,58 +2656,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
       <c r="P1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="63" t="str">
+      <c r="Q1" s="65" t="str">
         <f>D5</f>
-        <v>田坂</v>
-      </c>
-      <c r="R1" s="63"/>
+        <v>TM</v>
+      </c>
+      <c r="R1" s="65"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
       <c r="P2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="132">
+      <c r="Q2" s="66">
         <f>B5</f>
         <v>45180</v>
       </c>
-      <c r="R2" s="63"/>
+      <c r="R2" s="65"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="23"/>
@@ -2742,435 +2733,435 @@
       <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64" t="s">
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="68">
         <v>45180</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59" t="s">
+      <c r="C5" s="68"/>
+      <c r="D5" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60" t="s">
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="26">
         <v>2</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="26">
         <v>4</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="26">
         <v>5</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="26">
         <v>6</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="26">
         <v>7</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="26">
         <v>8</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="26">
         <v>9</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="26">
         <v>10</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="26">
         <v>11</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="26">
         <v>12</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="26">
         <v>13</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="26">
         <v>14</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="26">
         <v>15</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="26">
         <v>16</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="26">
         <v>17</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="26">
         <v>18</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -3181,6 +3172,78 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:O2"/>
     <mergeCell ref="Q1:R1"/>
@@ -3189,78 +3252,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -3290,112 +3281,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="98" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="127" t="str">
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="77" t="str">
         <f>表紙!D6</f>
         <v>フォーマット</v>
       </c>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="98" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="93" t="str">
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="84" t="str">
         <f>更新履歴!D5</f>
-        <v>田坂</v>
-      </c>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93" t="s">
+        <v>TM</v>
+      </c>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="109" t="str">
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="83" t="str">
         <f>VLOOKUP(MAX(更新履歴!B:B),更新履歴!B:D,3,FALSE)</f>
-        <v>田坂</v>
-      </c>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
+        <v>TM</v>
+      </c>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="98" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="113" t="str">
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="74" t="str">
         <f>RIGHT(表紙!D7,LEN(表紙!D7)-FIND("_",表紙!D7))</f>
         <v>サブシステム名</v>
       </c>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="98" t="s">
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="94">
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="85">
         <f>更新履歴!B5</f>
         <v>45180</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="93" t="s">
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="94">
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="85">
         <f>MAX(更新履歴!B:B)</f>
         <v>45180</v>
       </c>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
       <c r="A3" s="38"/>
@@ -3432,7 +3423,7 @@
       <c r="A4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AC4" s="112"/>
+      <c r="AC4" s="52"/>
       <c r="AD4" s="27"/>
       <c r="AE4" s="27"/>
       <c r="AF4" s="27"/>
@@ -3448,13 +3439,13 @@
       <c r="H5" s="22"/>
       <c r="J5" s="21"/>
       <c r="Q5" s="22"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
       <c r="AJ5" s="30"/>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1">
@@ -3464,13 +3455,13 @@
       <c r="H6" s="22"/>
       <c r="J6" s="21"/>
       <c r="Q6" s="22"/>
-      <c r="AC6" s="112"/>
-      <c r="AD6" s="112"/>
-      <c r="AE6" s="112"/>
-      <c r="AF6" s="112"/>
-      <c r="AG6" s="112"/>
-      <c r="AH6" s="112"/>
-      <c r="AI6" s="112"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="52"/>
       <c r="AJ6" s="30"/>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1">
@@ -3491,13 +3482,13 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="AC7" s="112"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="112"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="112"/>
-      <c r="AI7" s="112"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
       <c r="AJ7" s="30"/>
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1">
@@ -3557,13 +3548,13 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="21"/>
-      <c r="AC9" s="112"/>
-      <c r="AD9" s="112"/>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="112"/>
-      <c r="AG9" s="112"/>
-      <c r="AH9" s="112"/>
-      <c r="AI9" s="112"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
       <c r="AJ9" s="30"/>
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1">
@@ -3573,13 +3564,13 @@
       <c r="H10" s="21"/>
       <c r="J10" s="21"/>
       <c r="Q10" s="21"/>
-      <c r="AC10" s="112"/>
-      <c r="AD10" s="112"/>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="112"/>
-      <c r="AG10" s="112"/>
-      <c r="AH10" s="112"/>
-      <c r="AI10" s="112"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="52"/>
       <c r="AJ10" s="30"/>
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1">
@@ -3589,13 +3580,13 @@
       <c r="H11" s="21"/>
       <c r="J11" s="21"/>
       <c r="Q11" s="21"/>
-      <c r="AC11" s="112"/>
-      <c r="AD11" s="112"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="112"/>
-      <c r="AG11" s="112"/>
-      <c r="AH11" s="112"/>
-      <c r="AI11" s="112"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
       <c r="AJ11" s="30"/>
     </row>
     <row r="12" spans="1:36" ht="15" customHeight="1">
@@ -3605,13 +3596,13 @@
       <c r="H12" s="21"/>
       <c r="J12" s="21"/>
       <c r="Q12" s="21"/>
-      <c r="AC12" s="112"/>
-      <c r="AD12" s="112"/>
-      <c r="AE12" s="112"/>
-      <c r="AF12" s="112"/>
-      <c r="AG12" s="112"/>
-      <c r="AH12" s="112"/>
-      <c r="AI12" s="112"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52"/>
       <c r="AJ12" s="30"/>
     </row>
     <row r="13" spans="1:36" ht="15" customHeight="1">
@@ -3619,13 +3610,13 @@
       <c r="B13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="21"/>
-      <c r="AC13" s="112"/>
-      <c r="AD13" s="112"/>
-      <c r="AE13" s="112"/>
-      <c r="AF13" s="112"/>
-      <c r="AG13" s="112"/>
-      <c r="AH13" s="112"/>
-      <c r="AI13" s="112"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
       <c r="AJ13" s="30"/>
     </row>
     <row r="14" spans="1:36" ht="15" customHeight="1">
@@ -3633,7 +3624,7 @@
       <c r="B14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
-      <c r="AC14" s="112"/>
+      <c r="AC14" s="52"/>
       <c r="AD14" s="33"/>
       <c r="AE14" s="33"/>
       <c r="AF14" s="33"/>
@@ -3644,7 +3635,7 @@
     </row>
     <row r="15" spans="1:36" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -3675,13 +3666,13 @@
       <c r="AB15" s="27"/>
       <c r="AC15" s="40"/>
       <c r="AD15" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE15" s="112"/>
-      <c r="AF15" s="112"/>
-      <c r="AG15" s="112"/>
-      <c r="AH15" s="112"/>
-      <c r="AI15" s="112"/>
+        <v>96</v>
+      </c>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="52"/>
       <c r="AJ15" s="30"/>
     </row>
     <row r="16" spans="1:36" ht="15" customHeight="1">
@@ -3691,11 +3682,11 @@
       <c r="H16" s="21"/>
       <c r="AC16" s="30"/>
       <c r="AD16" s="29"/>
-      <c r="AE16" s="112"/>
-      <c r="AF16" s="112"/>
-      <c r="AG16" s="112"/>
-      <c r="AH16" s="112"/>
-      <c r="AI16" s="112"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
       <c r="AJ16" s="30"/>
     </row>
     <row r="17" spans="1:36" ht="15" customHeight="1">
@@ -3706,11 +3697,11 @@
       <c r="H17" s="21"/>
       <c r="AC17" s="30"/>
       <c r="AD17" s="29"/>
-      <c r="AE17" s="112"/>
-      <c r="AF17" s="112"/>
-      <c r="AG17" s="112"/>
-      <c r="AH17" s="112"/>
-      <c r="AI17" s="112"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
       <c r="AJ17" s="30"/>
     </row>
     <row r="18" spans="1:36" ht="15" customHeight="1">
@@ -3721,11 +3712,11 @@
       <c r="H18" s="21"/>
       <c r="AC18" s="30"/>
       <c r="AD18" s="29"/>
-      <c r="AE18" s="112"/>
-      <c r="AF18" s="112"/>
-      <c r="AG18" s="112"/>
-      <c r="AH18" s="112"/>
-      <c r="AI18" s="112"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
       <c r="AJ18" s="30"/>
     </row>
     <row r="19" spans="1:36" ht="15" customHeight="1">
@@ -3735,11 +3726,11 @@
       <c r="H19" s="21"/>
       <c r="AC19" s="30"/>
       <c r="AD19" s="29"/>
-      <c r="AE19" s="112"/>
-      <c r="AF19" s="112"/>
-      <c r="AG19" s="112"/>
-      <c r="AH19" s="112"/>
-      <c r="AI19" s="112"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
       <c r="AJ19" s="30"/>
     </row>
     <row r="20" spans="1:36" ht="15" customHeight="1">
@@ -3749,11 +3740,11 @@
       <c r="H20" s="21"/>
       <c r="AC20" s="30"/>
       <c r="AD20" s="29"/>
-      <c r="AE20" s="112"/>
-      <c r="AF20" s="112"/>
-      <c r="AG20" s="112"/>
-      <c r="AH20" s="112"/>
-      <c r="AI20" s="112"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
       <c r="AJ20" s="30"/>
     </row>
     <row r="21" spans="1:36" ht="15" customHeight="1">
@@ -3763,11 +3754,11 @@
       <c r="H21" s="21"/>
       <c r="AC21" s="30"/>
       <c r="AD21" s="29"/>
-      <c r="AE21" s="112"/>
-      <c r="AF21" s="112"/>
-      <c r="AG21" s="112"/>
-      <c r="AH21" s="112"/>
-      <c r="AI21" s="112"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
       <c r="AJ21" s="30"/>
     </row>
     <row r="22" spans="1:36" ht="15" customHeight="1">
@@ -3777,11 +3768,11 @@
       <c r="H22" s="21"/>
       <c r="AC22" s="30"/>
       <c r="AD22" s="29"/>
-      <c r="AE22" s="112"/>
-      <c r="AF22" s="112"/>
-      <c r="AG22" s="112"/>
-      <c r="AH22" s="112"/>
-      <c r="AI22" s="112"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="52"/>
       <c r="AJ22" s="30"/>
     </row>
     <row r="23" spans="1:36" ht="15" customHeight="1">
@@ -3791,11 +3782,11 @@
       <c r="H23" s="21"/>
       <c r="AC23" s="30"/>
       <c r="AD23" s="29"/>
-      <c r="AE23" s="112"/>
-      <c r="AF23" s="112"/>
-      <c r="AG23" s="112"/>
-      <c r="AH23" s="112"/>
-      <c r="AI23" s="112"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="52"/>
       <c r="AJ23" s="30"/>
     </row>
     <row r="24" spans="1:36" ht="15" customHeight="1">
@@ -3809,11 +3800,11 @@
       <c r="H24" s="21"/>
       <c r="AC24" s="30"/>
       <c r="AD24" s="29"/>
-      <c r="AE24" s="112"/>
-      <c r="AF24" s="112"/>
-      <c r="AG24" s="112"/>
-      <c r="AH24" s="112"/>
-      <c r="AI24" s="112"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="52"/>
+      <c r="AH24" s="52"/>
+      <c r="AI24" s="52"/>
       <c r="AJ24" s="30"/>
     </row>
     <row r="25" spans="1:36" ht="15" customHeight="1">
@@ -3823,22 +3814,22 @@
       <c r="H25" s="21"/>
       <c r="AC25" s="30"/>
       <c r="AD25" s="29"/>
-      <c r="AE25" s="112"/>
-      <c r="AF25" s="112"/>
-      <c r="AG25" s="112"/>
-      <c r="AH25" s="112"/>
-      <c r="AI25" s="112"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
       <c r="AJ25" s="30"/>
     </row>
     <row r="26" spans="1:36" ht="15" customHeight="1">
       <c r="A26" s="29"/>
       <c r="AC26" s="30"/>
       <c r="AD26" s="29"/>
-      <c r="AE26" s="112"/>
-      <c r="AF26" s="112"/>
-      <c r="AG26" s="112"/>
-      <c r="AH26" s="112"/>
-      <c r="AI26" s="112"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
       <c r="AJ26" s="30"/>
     </row>
     <row r="27" spans="1:36" ht="15" customHeight="1">
@@ -3846,11 +3837,11 @@
       <c r="B27" s="20"/>
       <c r="AC27" s="30"/>
       <c r="AD27" s="29"/>
-      <c r="AE27" s="112"/>
-      <c r="AF27" s="112"/>
-      <c r="AG27" s="112"/>
-      <c r="AH27" s="112"/>
-      <c r="AI27" s="112"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
       <c r="AJ27" s="30"/>
     </row>
     <row r="28" spans="1:36" ht="15" customHeight="1">
@@ -3858,11 +3849,11 @@
       <c r="B28" s="42"/>
       <c r="AC28" s="30"/>
       <c r="AD28" s="29"/>
-      <c r="AE28" s="112"/>
-      <c r="AF28" s="112"/>
-      <c r="AG28" s="112"/>
-      <c r="AH28" s="112"/>
-      <c r="AI28" s="112"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
       <c r="AJ28" s="30"/>
     </row>
     <row r="29" spans="1:36" ht="15" customHeight="1">
@@ -3870,11 +3861,11 @@
       <c r="B29" s="42"/>
       <c r="AC29" s="30"/>
       <c r="AD29" s="29"/>
-      <c r="AE29" s="112"/>
-      <c r="AF29" s="112"/>
-      <c r="AG29" s="112"/>
-      <c r="AH29" s="112"/>
-      <c r="AI29" s="112"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
       <c r="AJ29" s="30"/>
     </row>
     <row r="30" spans="1:36" ht="15" customHeight="1">
@@ -3882,33 +3873,33 @@
       <c r="B30" s="42"/>
       <c r="AC30" s="30"/>
       <c r="AD30" s="29"/>
-      <c r="AE30" s="112"/>
-      <c r="AF30" s="112"/>
-      <c r="AG30" s="112"/>
-      <c r="AH30" s="112"/>
-      <c r="AI30" s="112"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
       <c r="AJ30" s="30"/>
     </row>
     <row r="31" spans="1:36" ht="15" customHeight="1">
       <c r="A31" s="29"/>
       <c r="AC31" s="30"/>
       <c r="AD31" s="29"/>
-      <c r="AE31" s="112"/>
-      <c r="AF31" s="112"/>
-      <c r="AG31" s="112"/>
-      <c r="AH31" s="112"/>
-      <c r="AI31" s="112"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
       <c r="AJ31" s="30"/>
     </row>
     <row r="32" spans="1:36" ht="15" customHeight="1">
       <c r="A32" s="29"/>
       <c r="AC32" s="30"/>
       <c r="AD32" s="29"/>
-      <c r="AE32" s="112"/>
-      <c r="AF32" s="112"/>
-      <c r="AG32" s="112"/>
-      <c r="AH32" s="112"/>
-      <c r="AI32" s="112"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
       <c r="AJ32" s="30"/>
     </row>
     <row r="33" spans="1:36" ht="15" customHeight="1">
@@ -3916,158 +3907,158 @@
       <c r="B33" s="42"/>
       <c r="AC33" s="30"/>
       <c r="AD33" s="29"/>
-      <c r="AE33" s="112"/>
-      <c r="AF33" s="112"/>
-      <c r="AG33" s="112"/>
-      <c r="AH33" s="112"/>
-      <c r="AI33" s="112"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
       <c r="AJ33" s="30"/>
     </row>
     <row r="34" spans="1:36" ht="15" customHeight="1">
       <c r="A34" s="29"/>
       <c r="AC34" s="30"/>
       <c r="AD34" s="29"/>
-      <c r="AE34" s="112"/>
-      <c r="AF34" s="112"/>
-      <c r="AG34" s="112"/>
-      <c r="AH34" s="112"/>
-      <c r="AI34" s="112"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="52"/>
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52"/>
       <c r="AJ34" s="30"/>
     </row>
     <row r="35" spans="1:36" ht="15" customHeight="1">
       <c r="A35" s="29"/>
       <c r="AC35" s="30"/>
       <c r="AD35" s="29"/>
-      <c r="AE35" s="112"/>
-      <c r="AF35" s="112"/>
-      <c r="AG35" s="112"/>
-      <c r="AH35" s="112"/>
-      <c r="AI35" s="112"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
       <c r="AJ35" s="30"/>
     </row>
     <row r="36" spans="1:36" ht="15" customHeight="1">
       <c r="A36" s="29"/>
       <c r="AC36" s="30"/>
       <c r="AD36" s="29"/>
-      <c r="AE36" s="112"/>
-      <c r="AF36" s="112"/>
-      <c r="AG36" s="112"/>
-      <c r="AH36" s="112"/>
-      <c r="AI36" s="112"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52"/>
       <c r="AJ36" s="30"/>
     </row>
     <row r="37" spans="1:36" ht="15" customHeight="1">
       <c r="A37" s="29"/>
-      <c r="B37" s="133"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="134"/>
-      <c r="I37" s="134"/>
-      <c r="J37" s="134"/>
-      <c r="K37" s="134"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="134"/>
-      <c r="N37" s="134"/>
-      <c r="O37" s="134"/>
-      <c r="P37" s="134"/>
-      <c r="Q37" s="134"/>
-      <c r="R37" s="134"/>
-      <c r="S37" s="134"/>
-      <c r="T37" s="134"/>
-      <c r="U37" s="134"/>
-      <c r="V37" s="134"/>
-      <c r="W37" s="134"/>
-      <c r="X37" s="134"/>
-      <c r="Y37" s="134"/>
-      <c r="Z37" s="134"/>
-      <c r="AA37" s="134"/>
-      <c r="AB37" s="134"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
       <c r="AC37" s="30"/>
       <c r="AD37" s="29"/>
-      <c r="AE37" s="112"/>
-      <c r="AF37" s="112"/>
-      <c r="AG37" s="112"/>
-      <c r="AH37" s="112"/>
-      <c r="AI37" s="112"/>
+      <c r="AE37" s="52"/>
+      <c r="AF37" s="52"/>
+      <c r="AG37" s="52"/>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="52"/>
       <c r="AJ37" s="30"/>
     </row>
     <row r="38" spans="1:36" ht="15" customHeight="1">
       <c r="A38" s="29"/>
-      <c r="B38" s="135"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="135"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
-      <c r="N38" s="134"/>
-      <c r="O38" s="134"/>
-      <c r="P38" s="134"/>
-      <c r="Q38" s="134"/>
-      <c r="R38" s="134"/>
-      <c r="S38" s="134"/>
-      <c r="T38" s="134"/>
-      <c r="U38" s="134"/>
-      <c r="V38" s="134"/>
-      <c r="W38" s="134"/>
-      <c r="X38" s="134"/>
-      <c r="Y38" s="134"/>
-      <c r="Z38" s="134"/>
-      <c r="AA38" s="134"/>
-      <c r="AB38" s="134"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
       <c r="AC38" s="30"/>
       <c r="AD38" s="29"/>
-      <c r="AE38" s="112"/>
-      <c r="AF38" s="112"/>
-      <c r="AG38" s="112"/>
-      <c r="AH38" s="112"/>
-      <c r="AI38" s="112"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="52"/>
+      <c r="AG38" s="52"/>
+      <c r="AH38" s="52"/>
+      <c r="AI38" s="52"/>
       <c r="AJ38" s="30"/>
     </row>
     <row r="39" spans="1:36" ht="15" customHeight="1">
       <c r="A39" s="29"/>
-      <c r="B39" s="135"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="135"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="134"/>
-      <c r="O39" s="134"/>
-      <c r="P39" s="134"/>
-      <c r="Q39" s="134"/>
-      <c r="R39" s="134"/>
-      <c r="S39" s="134"/>
-      <c r="T39" s="134"/>
-      <c r="U39" s="134"/>
-      <c r="V39" s="134"/>
-      <c r="W39" s="134"/>
-      <c r="X39" s="134"/>
-      <c r="Y39" s="134"/>
-      <c r="Z39" s="134"/>
-      <c r="AA39" s="134"/>
-      <c r="AB39" s="134"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
       <c r="AC39" s="30"/>
       <c r="AD39" s="29"/>
-      <c r="AE39" s="112"/>
-      <c r="AF39" s="112"/>
-      <c r="AG39" s="112"/>
-      <c r="AH39" s="112"/>
-      <c r="AI39" s="112"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
+      <c r="AH39" s="52"/>
+      <c r="AI39" s="52"/>
       <c r="AJ39" s="30"/>
     </row>
     <row r="40" spans="1:36" ht="15" customHeight="1">
@@ -4110,6 +4101,8 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="I2:X2"/>
     <mergeCell ref="I1:X1"/>
     <mergeCell ref="E2:H2"/>
@@ -4121,8 +4114,6 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -4155,112 +4146,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="98" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="127" t="str">
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="77" t="str">
         <f>表紙!D6</f>
         <v>フォーマット</v>
       </c>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="98" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="93" t="str">
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="84" t="str">
         <f>更新履歴!D5</f>
-        <v>田坂</v>
-      </c>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93" t="s">
+        <v>TM</v>
+      </c>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="109" t="str">
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="83" t="str">
         <f>VLOOKUP(MAX(更新履歴!B:B),更新履歴!B:D,3,FALSE)</f>
-        <v>田坂</v>
-      </c>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
+        <v>TM</v>
+      </c>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="98" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="113" t="str">
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="74" t="str">
         <f>RIGHT(表紙!D7,LEN(表紙!D7)-FIND("_",表紙!D7))</f>
         <v>サブシステム名</v>
       </c>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="98" t="s">
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="94">
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="85">
         <f>更新履歴!B5</f>
         <v>45180</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="93" t="s">
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="94">
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="85">
         <f>MAX(更新履歴!B:B)</f>
         <v>45180</v>
       </c>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
       <c r="A3" s="38"/>
@@ -4297,8 +4288,8 @@
       <c r="A4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="136"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="56"/>
       <c r="AE4" s="27"/>
       <c r="AF4" s="27"/>
       <c r="AG4" s="27"/>
@@ -4317,13 +4308,13 @@
       <c r="H5" s="22"/>
       <c r="J5" s="21"/>
       <c r="Q5" s="22"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
       <c r="AJ5" s="30"/>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1">
@@ -4333,13 +4324,13 @@
       <c r="H6" s="22"/>
       <c r="J6" s="21"/>
       <c r="Q6" s="22"/>
-      <c r="AC6" s="112"/>
-      <c r="AD6" s="112"/>
-      <c r="AE6" s="112"/>
-      <c r="AF6" s="112"/>
-      <c r="AG6" s="112"/>
-      <c r="AH6" s="112"/>
-      <c r="AI6" s="112"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="52"/>
       <c r="AJ6" s="30"/>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1">
@@ -4360,13 +4351,13 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="AC7" s="112"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="112"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="112"/>
-      <c r="AI7" s="112"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
       <c r="AJ7" s="30"/>
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1">
@@ -4430,13 +4421,13 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="21"/>
-      <c r="AC9" s="112"/>
-      <c r="AD9" s="112"/>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="112"/>
-      <c r="AG9" s="112"/>
-      <c r="AH9" s="112"/>
-      <c r="AI9" s="112"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
       <c r="AJ9" s="30"/>
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1">
@@ -4450,13 +4441,13 @@
       <c r="H10" s="21"/>
       <c r="J10" s="21"/>
       <c r="Q10" s="21"/>
-      <c r="AC10" s="112"/>
-      <c r="AD10" s="112"/>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="112"/>
-      <c r="AG10" s="112"/>
-      <c r="AH10" s="112"/>
-      <c r="AI10" s="112"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="52"/>
       <c r="AJ10" s="30"/>
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1">
@@ -4470,13 +4461,13 @@
       <c r="H11" s="21"/>
       <c r="J11" s="21"/>
       <c r="Q11" s="21"/>
-      <c r="AC11" s="112"/>
-      <c r="AD11" s="112"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="112"/>
-      <c r="AG11" s="112"/>
-      <c r="AH11" s="112"/>
-      <c r="AI11" s="112"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
       <c r="AJ11" s="30"/>
     </row>
     <row r="12" spans="1:36" ht="15" customHeight="1">
@@ -4490,13 +4481,13 @@
       <c r="H12" s="21"/>
       <c r="J12" s="21"/>
       <c r="Q12" s="21"/>
-      <c r="AC12" s="112"/>
-      <c r="AD12" s="112"/>
-      <c r="AE12" s="112"/>
-      <c r="AF12" s="112"/>
-      <c r="AG12" s="112"/>
-      <c r="AH12" s="112"/>
-      <c r="AI12" s="112"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52"/>
       <c r="AJ12" s="30"/>
     </row>
     <row r="13" spans="1:36" ht="15" customHeight="1">
@@ -4508,13 +4499,13 @@
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="21"/>
-      <c r="AC13" s="112"/>
-      <c r="AD13" s="112"/>
-      <c r="AE13" s="112"/>
-      <c r="AF13" s="112"/>
-      <c r="AG13" s="112"/>
-      <c r="AH13" s="112"/>
-      <c r="AI13" s="112"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
       <c r="AJ13" s="30"/>
     </row>
     <row r="14" spans="1:36" ht="15" customHeight="1">
@@ -4522,18 +4513,18 @@
       <c r="B14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
-      <c r="AC14" s="112"/>
+      <c r="AC14" s="52"/>
       <c r="AD14" s="33"/>
-      <c r="AE14" s="112"/>
-      <c r="AF14" s="112"/>
-      <c r="AG14" s="112"/>
-      <c r="AH14" s="112"/>
-      <c r="AI14" s="112"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="52"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="52"/>
       <c r="AJ14" s="30"/>
     </row>
     <row r="15" spans="1:36" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -4564,7 +4555,7 @@
       <c r="AB15" s="27"/>
       <c r="AC15" s="40"/>
       <c r="AD15" s="36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AE15" s="27"/>
       <c r="AF15" s="27"/>
@@ -4584,11 +4575,11 @@
       <c r="H16" s="21"/>
       <c r="AC16" s="30"/>
       <c r="AD16" s="29"/>
-      <c r="AE16" s="112"/>
-      <c r="AF16" s="112"/>
-      <c r="AG16" s="112"/>
-      <c r="AH16" s="112"/>
-      <c r="AI16" s="112"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
       <c r="AJ16" s="30"/>
     </row>
     <row r="17" spans="1:36" ht="15" customHeight="1">
@@ -4603,11 +4594,11 @@
       <c r="H17" s="21"/>
       <c r="AC17" s="30"/>
       <c r="AD17" s="29"/>
-      <c r="AE17" s="112"/>
-      <c r="AF17" s="112"/>
-      <c r="AG17" s="112"/>
-      <c r="AH17" s="112"/>
-      <c r="AI17" s="112"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
       <c r="AJ17" s="30"/>
     </row>
     <row r="18" spans="1:36" ht="15" customHeight="1">
@@ -4620,11 +4611,11 @@
       <c r="H18" s="21"/>
       <c r="AC18" s="30"/>
       <c r="AD18" s="29"/>
-      <c r="AE18" s="112"/>
-      <c r="AF18" s="112"/>
-      <c r="AG18" s="112"/>
-      <c r="AH18" s="112"/>
-      <c r="AI18" s="112"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
       <c r="AJ18" s="30"/>
     </row>
     <row r="19" spans="1:36" ht="15" customHeight="1">
@@ -4634,11 +4625,11 @@
       <c r="H19" s="21"/>
       <c r="AC19" s="30"/>
       <c r="AD19" s="29"/>
-      <c r="AE19" s="112"/>
-      <c r="AF19" s="112"/>
-      <c r="AG19" s="112"/>
-      <c r="AH19" s="112"/>
-      <c r="AI19" s="112"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
       <c r="AJ19" s="30"/>
     </row>
     <row r="20" spans="1:36" ht="15" customHeight="1">
@@ -4652,11 +4643,11 @@
       <c r="H20" s="21"/>
       <c r="AC20" s="30"/>
       <c r="AD20" s="29"/>
-      <c r="AE20" s="112"/>
-      <c r="AF20" s="112"/>
-      <c r="AG20" s="112"/>
-      <c r="AH20" s="112"/>
-      <c r="AI20" s="112"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
       <c r="AJ20" s="30"/>
     </row>
     <row r="21" spans="1:36" ht="15" customHeight="1">
@@ -4671,11 +4662,11 @@
       <c r="H21" s="21"/>
       <c r="AC21" s="30"/>
       <c r="AD21" s="29"/>
-      <c r="AE21" s="112"/>
-      <c r="AF21" s="112"/>
-      <c r="AG21" s="112"/>
-      <c r="AH21" s="112"/>
-      <c r="AI21" s="112"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
       <c r="AJ21" s="30"/>
     </row>
     <row r="22" spans="1:36" ht="15" customHeight="1">
@@ -4685,11 +4676,11 @@
       <c r="H22" s="21"/>
       <c r="AC22" s="30"/>
       <c r="AD22" s="29"/>
-      <c r="AE22" s="112"/>
-      <c r="AF22" s="112"/>
-      <c r="AG22" s="112"/>
-      <c r="AH22" s="112"/>
-      <c r="AI22" s="112"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="52"/>
       <c r="AJ22" s="30"/>
     </row>
     <row r="23" spans="1:36" ht="15" customHeight="1">
@@ -4703,11 +4694,11 @@
       <c r="H23" s="21"/>
       <c r="AC23" s="30"/>
       <c r="AD23" s="29"/>
-      <c r="AE23" s="112"/>
-      <c r="AF23" s="112"/>
-      <c r="AG23" s="112"/>
-      <c r="AH23" s="112"/>
-      <c r="AI23" s="112"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="52"/>
       <c r="AJ23" s="30"/>
     </row>
     <row r="24" spans="1:36" ht="15" customHeight="1">
@@ -4723,11 +4714,11 @@
       <c r="H24" s="21"/>
       <c r="AC24" s="30"/>
       <c r="AD24" s="29"/>
-      <c r="AE24" s="112"/>
-      <c r="AF24" s="112"/>
-      <c r="AG24" s="112"/>
-      <c r="AH24" s="112"/>
-      <c r="AI24" s="112"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="52"/>
+      <c r="AH24" s="52"/>
+      <c r="AI24" s="52"/>
       <c r="AJ24" s="30"/>
     </row>
     <row r="25" spans="1:36" ht="15" customHeight="1">
@@ -4742,53 +4733,53 @@
       <c r="H25" s="21"/>
       <c r="AC25" s="30"/>
       <c r="AD25" s="29"/>
-      <c r="AE25" s="112"/>
-      <c r="AF25" s="112"/>
-      <c r="AG25" s="112"/>
-      <c r="AH25" s="112"/>
-      <c r="AI25" s="112"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
       <c r="AJ25" s="30"/>
     </row>
     <row r="26" spans="1:36" ht="15" customHeight="1">
       <c r="A26" s="29"/>
       <c r="AC26" s="30"/>
       <c r="AD26" s="29"/>
-      <c r="AE26" s="112"/>
-      <c r="AF26" s="112"/>
-      <c r="AG26" s="112"/>
-      <c r="AH26" s="112"/>
-      <c r="AI26" s="112"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
       <c r="AJ26" s="30"/>
     </row>
     <row r="27" spans="1:36" ht="15" customHeight="1">
       <c r="A27" s="29"/>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="90" t="s">
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="92"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="109"/>
       <c r="AC27" s="30"/>
       <c r="AD27" s="29"/>
-      <c r="AE27" s="112"/>
-      <c r="AF27" s="112"/>
-      <c r="AG27" s="112"/>
-      <c r="AH27" s="112"/>
-      <c r="AI27" s="112"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
       <c r="AJ27" s="30"/>
     </row>
     <row r="28" spans="1:36" ht="15" customHeight="1">
@@ -4796,34 +4787,34 @@
       <c r="C28" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="97" t="s">
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="87" t="s">
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="124"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="128"/>
       <c r="AC28" s="30"/>
       <c r="AD28" s="29"/>
-      <c r="AE28" s="112"/>
-      <c r="AF28" s="112"/>
-      <c r="AG28" s="112"/>
-      <c r="AH28" s="112"/>
-      <c r="AI28" s="112"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
       <c r="AJ28" s="30"/>
     </row>
     <row r="29" spans="1:36" ht="15" customHeight="1">
@@ -4831,34 +4822,34 @@
       <c r="C29" s="43">
         <v>1</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="85" t="s">
+      <c r="E29" s="124"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="87" t="s">
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="124"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="128"/>
       <c r="AC29" s="30"/>
       <c r="AD29" s="29"/>
-      <c r="AE29" s="112"/>
-      <c r="AF29" s="112"/>
-      <c r="AG29" s="112"/>
-      <c r="AH29" s="112"/>
-      <c r="AI29" s="112"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
       <c r="AJ29" s="30"/>
     </row>
     <row r="30" spans="1:36" ht="15" customHeight="1">
@@ -4866,34 +4857,34 @@
       <c r="C30" s="43">
         <v>2</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="85" t="s">
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="87" t="s">
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M30" s="123"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="124"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="128"/>
       <c r="AC30" s="30"/>
       <c r="AD30" s="29"/>
-      <c r="AE30" s="112"/>
-      <c r="AF30" s="112"/>
-      <c r="AG30" s="112"/>
-      <c r="AH30" s="112"/>
-      <c r="AI30" s="112"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
       <c r="AJ30" s="30"/>
     </row>
     <row r="31" spans="1:36" ht="15" customHeight="1">
@@ -4901,34 +4892,34 @@
       <c r="C31" s="43">
         <v>3</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="85" t="s">
+      <c r="E31" s="124"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="87" t="s">
+      <c r="I31" s="124"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="124"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="127"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="128"/>
       <c r="AC31" s="30"/>
       <c r="AD31" s="29"/>
-      <c r="AE31" s="112"/>
-      <c r="AF31" s="112"/>
-      <c r="AG31" s="112"/>
-      <c r="AH31" s="112"/>
-      <c r="AI31" s="112"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
       <c r="AJ31" s="30"/>
     </row>
     <row r="32" spans="1:36" ht="15" customHeight="1">
@@ -4936,34 +4927,34 @@
       <c r="C32" s="43">
         <v>4</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="85" t="s">
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="87" t="s">
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="124"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="128"/>
       <c r="AC32" s="30"/>
       <c r="AD32" s="29"/>
-      <c r="AE32" s="112"/>
-      <c r="AF32" s="112"/>
-      <c r="AG32" s="112"/>
-      <c r="AH32" s="112"/>
-      <c r="AI32" s="112"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
       <c r="AJ32" s="30"/>
     </row>
     <row r="33" spans="1:36" ht="15" customHeight="1">
@@ -4971,34 +4962,34 @@
       <c r="C33" s="43">
         <v>5</v>
       </c>
-      <c r="D33" s="85" t="s">
+      <c r="D33" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="85" t="s">
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="87" t="s">
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="124"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="128"/>
       <c r="AC33" s="30"/>
       <c r="AD33" s="29"/>
-      <c r="AE33" s="112"/>
-      <c r="AF33" s="112"/>
-      <c r="AG33" s="112"/>
-      <c r="AH33" s="112"/>
-      <c r="AI33" s="112"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
       <c r="AJ33" s="30"/>
     </row>
     <row r="34" spans="1:36" ht="15" customHeight="1">
@@ -5006,34 +4997,34 @@
       <c r="C34" s="43">
         <v>6</v>
       </c>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="85" t="s">
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="87" t="s">
+      <c r="I34" s="124"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="123"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="124"/>
+      <c r="M34" s="127"/>
+      <c r="N34" s="127"/>
+      <c r="O34" s="127"/>
+      <c r="P34" s="127"/>
+      <c r="Q34" s="127"/>
+      <c r="R34" s="128"/>
       <c r="AC34" s="30"/>
       <c r="AD34" s="29"/>
-      <c r="AE34" s="112"/>
-      <c r="AF34" s="112"/>
-      <c r="AG34" s="112"/>
-      <c r="AH34" s="112"/>
-      <c r="AI34" s="112"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="52"/>
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52"/>
       <c r="AJ34" s="30"/>
     </row>
     <row r="35" spans="1:36" ht="15" customHeight="1">
@@ -5041,34 +5032,34 @@
       <c r="C35" s="43">
         <v>7</v>
       </c>
-      <c r="D35" s="85" t="s">
+      <c r="D35" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="85" t="s">
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="87" t="s">
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="124"/>
+      <c r="M35" s="127"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="127"/>
+      <c r="P35" s="127"/>
+      <c r="Q35" s="127"/>
+      <c r="R35" s="128"/>
       <c r="AC35" s="30"/>
       <c r="AD35" s="29"/>
-      <c r="AE35" s="112"/>
-      <c r="AF35" s="112"/>
-      <c r="AG35" s="112"/>
-      <c r="AH35" s="112"/>
-      <c r="AI35" s="112"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
       <c r="AJ35" s="30"/>
     </row>
     <row r="36" spans="1:36" ht="15" customHeight="1">
@@ -5076,34 +5067,34 @@
       <c r="C36" s="44">
         <v>8</v>
       </c>
-      <c r="D36" s="88" t="s">
+      <c r="D36" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="88" t="s">
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="87" t="s">
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="123"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="124"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="127"/>
+      <c r="O36" s="127"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="128"/>
       <c r="AC36" s="30"/>
       <c r="AD36" s="29"/>
-      <c r="AE36" s="112"/>
-      <c r="AF36" s="112"/>
-      <c r="AG36" s="112"/>
-      <c r="AH36" s="112"/>
-      <c r="AI36" s="112"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52"/>
       <c r="AJ36" s="30"/>
     </row>
     <row r="37" spans="1:36" ht="15" customHeight="1">
@@ -5111,34 +5102,34 @@
       <c r="C37" s="43">
         <v>9</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="85" t="s">
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="87" t="s">
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="124"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="127"/>
+      <c r="O37" s="127"/>
+      <c r="P37" s="127"/>
+      <c r="Q37" s="127"/>
+      <c r="R37" s="128"/>
       <c r="AC37" s="30"/>
       <c r="AD37" s="29"/>
-      <c r="AE37" s="112"/>
-      <c r="AF37" s="112"/>
-      <c r="AG37" s="112"/>
-      <c r="AH37" s="112"/>
-      <c r="AI37" s="112"/>
+      <c r="AE37" s="52"/>
+      <c r="AF37" s="52"/>
+      <c r="AG37" s="52"/>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="52"/>
       <c r="AJ37" s="30"/>
     </row>
     <row r="38" spans="1:36" ht="15" customHeight="1">
@@ -5146,34 +5137,34 @@
       <c r="C38" s="44">
         <v>10</v>
       </c>
-      <c r="D38" s="88" t="s">
+      <c r="D38" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="88" t="s">
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="87" t="s">
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M38" s="123"/>
-      <c r="N38" s="123"/>
-      <c r="O38" s="123"/>
-      <c r="P38" s="123"/>
-      <c r="Q38" s="123"/>
-      <c r="R38" s="124"/>
+      <c r="M38" s="127"/>
+      <c r="N38" s="127"/>
+      <c r="O38" s="127"/>
+      <c r="P38" s="127"/>
+      <c r="Q38" s="127"/>
+      <c r="R38" s="128"/>
       <c r="AC38" s="30"/>
       <c r="AD38" s="29"/>
-      <c r="AE38" s="112"/>
-      <c r="AF38" s="112"/>
-      <c r="AG38" s="112"/>
-      <c r="AH38" s="112"/>
-      <c r="AI38" s="112"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="52"/>
+      <c r="AG38" s="52"/>
+      <c r="AH38" s="52"/>
+      <c r="AI38" s="52"/>
       <c r="AJ38" s="30"/>
     </row>
     <row r="39" spans="1:36" ht="15" customHeight="1">
@@ -5181,34 +5172,34 @@
       <c r="C39" s="44">
         <v>11</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="88" t="s">
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="87" t="s">
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M39" s="123"/>
-      <c r="N39" s="123"/>
-      <c r="O39" s="123"/>
-      <c r="P39" s="123"/>
-      <c r="Q39" s="123"/>
-      <c r="R39" s="124"/>
+      <c r="M39" s="127"/>
+      <c r="N39" s="127"/>
+      <c r="O39" s="127"/>
+      <c r="P39" s="127"/>
+      <c r="Q39" s="127"/>
+      <c r="R39" s="128"/>
       <c r="AC39" s="30"/>
       <c r="AD39" s="29"/>
-      <c r="AE39" s="112"/>
-      <c r="AF39" s="112"/>
-      <c r="AG39" s="112"/>
-      <c r="AH39" s="112"/>
-      <c r="AI39" s="112"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
+      <c r="AH39" s="52"/>
+      <c r="AI39" s="52"/>
       <c r="AJ39" s="30"/>
     </row>
     <row r="40" spans="1:36" ht="15" customHeight="1">
@@ -5216,34 +5207,34 @@
       <c r="C40" s="44">
         <v>12</v>
       </c>
-      <c r="D40" s="88" t="s">
+      <c r="D40" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="88" t="s">
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="107" t="s">
+      <c r="I40" s="129"/>
+      <c r="J40" s="129"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="M40" s="125"/>
-      <c r="N40" s="125"/>
-      <c r="O40" s="125"/>
-      <c r="P40" s="125"/>
-      <c r="Q40" s="125"/>
-      <c r="R40" s="126"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="132"/>
+      <c r="P40" s="132"/>
+      <c r="Q40" s="132"/>
+      <c r="R40" s="133"/>
       <c r="AC40" s="30"/>
       <c r="AD40" s="29"/>
-      <c r="AE40" s="112"/>
-      <c r="AF40" s="112"/>
-      <c r="AG40" s="112"/>
-      <c r="AH40" s="112"/>
-      <c r="AI40" s="112"/>
+      <c r="AE40" s="52"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
+      <c r="AH40" s="52"/>
+      <c r="AI40" s="52"/>
       <c r="AJ40" s="30"/>
     </row>
     <row r="41" spans="1:36" ht="15" customHeight="1">
@@ -5251,34 +5242,34 @@
       <c r="C41" s="43">
         <v>13</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="85" t="s">
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="87" t="s">
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M41" s="123"/>
-      <c r="N41" s="123"/>
-      <c r="O41" s="123"/>
-      <c r="P41" s="123"/>
-      <c r="Q41" s="123"/>
-      <c r="R41" s="124"/>
+      <c r="M41" s="127"/>
+      <c r="N41" s="127"/>
+      <c r="O41" s="127"/>
+      <c r="P41" s="127"/>
+      <c r="Q41" s="127"/>
+      <c r="R41" s="128"/>
       <c r="AC41" s="30"/>
       <c r="AD41" s="29"/>
-      <c r="AE41" s="112"/>
-      <c r="AF41" s="112"/>
-      <c r="AG41" s="112"/>
-      <c r="AH41" s="112"/>
-      <c r="AI41" s="112"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
+      <c r="AH41" s="52"/>
+      <c r="AI41" s="52"/>
       <c r="AJ41" s="30"/>
     </row>
     <row r="42" spans="1:36" ht="15" customHeight="1">
@@ -5286,34 +5277,34 @@
       <c r="C42" s="43">
         <v>14</v>
       </c>
-      <c r="D42" s="85" t="s">
+      <c r="D42" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="85" t="s">
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="87" t="s">
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M42" s="123"/>
-      <c r="N42" s="123"/>
-      <c r="O42" s="123"/>
-      <c r="P42" s="123"/>
-      <c r="Q42" s="123"/>
-      <c r="R42" s="124"/>
+      <c r="M42" s="127"/>
+      <c r="N42" s="127"/>
+      <c r="O42" s="127"/>
+      <c r="P42" s="127"/>
+      <c r="Q42" s="127"/>
+      <c r="R42" s="128"/>
       <c r="AC42" s="30"/>
       <c r="AD42" s="29"/>
-      <c r="AE42" s="112"/>
-      <c r="AF42" s="112"/>
-      <c r="AG42" s="112"/>
-      <c r="AH42" s="112"/>
-      <c r="AI42" s="112"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="52"/>
       <c r="AJ42" s="30"/>
     </row>
     <row r="43" spans="1:36" ht="15" customHeight="1">
@@ -5321,612 +5312,612 @@
       <c r="C43" s="44">
         <v>15</v>
       </c>
-      <c r="D43" s="88" t="s">
+      <c r="D43" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="88" t="s">
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="87" t="s">
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M43" s="123"/>
-      <c r="N43" s="123"/>
-      <c r="O43" s="123"/>
-      <c r="P43" s="123"/>
-      <c r="Q43" s="123"/>
-      <c r="R43" s="124"/>
+      <c r="M43" s="127"/>
+      <c r="N43" s="127"/>
+      <c r="O43" s="127"/>
+      <c r="P43" s="127"/>
+      <c r="Q43" s="127"/>
+      <c r="R43" s="128"/>
       <c r="AC43" s="30"/>
       <c r="AD43" s="29"/>
-      <c r="AE43" s="112"/>
-      <c r="AF43" s="112"/>
-      <c r="AG43" s="112"/>
-      <c r="AH43" s="112"/>
-      <c r="AI43" s="112"/>
+      <c r="AE43" s="52"/>
+      <c r="AF43" s="52"/>
+      <c r="AG43" s="52"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="52"/>
       <c r="AJ43" s="30"/>
     </row>
     <row r="44" spans="1:36" ht="15" customHeight="1">
       <c r="A44" s="29"/>
-      <c r="C44" s="90" t="s">
+      <c r="C44" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="90" t="s">
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="109"/>
+      <c r="L44" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="M44" s="91"/>
-      <c r="N44" s="91"/>
-      <c r="O44" s="91"/>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="91"/>
-      <c r="R44" s="92"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="108"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="109"/>
       <c r="AC44" s="30"/>
       <c r="AD44" s="29"/>
-      <c r="AE44" s="112"/>
-      <c r="AF44" s="112"/>
-      <c r="AG44" s="112"/>
-      <c r="AH44" s="112"/>
-      <c r="AI44" s="112"/>
+      <c r="AE44" s="52"/>
+      <c r="AF44" s="52"/>
+      <c r="AG44" s="52"/>
+      <c r="AH44" s="52"/>
+      <c r="AI44" s="52"/>
       <c r="AJ44" s="30"/>
     </row>
     <row r="45" spans="1:36" ht="25.5" customHeight="1">
       <c r="A45" s="29"/>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="71" t="s">
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="M45" s="114"/>
-      <c r="N45" s="114"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="114"/>
-      <c r="R45" s="115"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="116"/>
+      <c r="O45" s="116"/>
+      <c r="P45" s="116"/>
+      <c r="Q45" s="116"/>
+      <c r="R45" s="117"/>
       <c r="AC45" s="30"/>
       <c r="AD45" s="29"/>
-      <c r="AE45" s="112"/>
-      <c r="AF45" s="112"/>
-      <c r="AG45" s="112"/>
-      <c r="AH45" s="112"/>
-      <c r="AI45" s="112"/>
+      <c r="AE45" s="52"/>
+      <c r="AF45" s="52"/>
+      <c r="AG45" s="52"/>
+      <c r="AH45" s="52"/>
+      <c r="AI45" s="52"/>
       <c r="AJ45" s="30"/>
     </row>
     <row r="46" spans="1:36" ht="25.5" customHeight="1">
       <c r="A46" s="29"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="116"/>
-      <c r="M46" s="117"/>
-      <c r="N46" s="117"/>
-      <c r="O46" s="117"/>
-      <c r="P46" s="117"/>
-      <c r="Q46" s="117"/>
-      <c r="R46" s="118"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="119"/>
+      <c r="O46" s="119"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="120"/>
       <c r="AC46" s="30"/>
       <c r="AD46" s="29"/>
-      <c r="AE46" s="112"/>
-      <c r="AF46" s="112"/>
-      <c r="AG46" s="112"/>
-      <c r="AH46" s="112"/>
-      <c r="AI46" s="112"/>
+      <c r="AE46" s="52"/>
+      <c r="AF46" s="52"/>
+      <c r="AG46" s="52"/>
+      <c r="AH46" s="52"/>
+      <c r="AI46" s="52"/>
       <c r="AJ46" s="30"/>
     </row>
     <row r="47" spans="1:36" ht="15" customHeight="1">
       <c r="A47" s="29"/>
-      <c r="C47" s="90" t="s">
+      <c r="C47" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="90" t="s">
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="109"/>
+      <c r="L47" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="91"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="92"/>
+      <c r="M47" s="108"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="108"/>
+      <c r="P47" s="108"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="109"/>
       <c r="AC47" s="30"/>
       <c r="AD47" s="29"/>
-      <c r="AE47" s="112"/>
-      <c r="AF47" s="112"/>
-      <c r="AG47" s="112"/>
-      <c r="AH47" s="112"/>
-      <c r="AI47" s="112"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="52"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="52"/>
+      <c r="AI47" s="52"/>
       <c r="AJ47" s="30"/>
     </row>
     <row r="48" spans="1:36" ht="15" customHeight="1">
       <c r="A48" s="29"/>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="77" t="s">
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="78"/>
-      <c r="P48" s="78"/>
-      <c r="Q48" s="78"/>
-      <c r="R48" s="79"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="100"/>
       <c r="S48" s="20" t="s">
         <v>76</v>
       </c>
       <c r="AC48" s="30"/>
       <c r="AD48" s="29"/>
-      <c r="AE48" s="112"/>
-      <c r="AF48" s="112"/>
-      <c r="AG48" s="112"/>
-      <c r="AH48" s="112"/>
-      <c r="AI48" s="112"/>
+      <c r="AE48" s="52"/>
+      <c r="AF48" s="52"/>
+      <c r="AG48" s="52"/>
+      <c r="AH48" s="52"/>
+      <c r="AI48" s="52"/>
       <c r="AJ48" s="30"/>
     </row>
     <row r="49" spans="1:36" ht="15" customHeight="1">
       <c r="A49" s="29"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="119"/>
-      <c r="N49" s="119"/>
-      <c r="O49" s="119"/>
-      <c r="P49" s="119"/>
-      <c r="Q49" s="119"/>
-      <c r="R49" s="81"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="97"/>
+      <c r="L49" s="101"/>
+      <c r="M49" s="102"/>
+      <c r="N49" s="102"/>
+      <c r="O49" s="102"/>
+      <c r="P49" s="102"/>
+      <c r="Q49" s="102"/>
+      <c r="R49" s="103"/>
       <c r="AC49" s="30"/>
       <c r="AD49" s="29"/>
-      <c r="AE49" s="112"/>
-      <c r="AF49" s="112"/>
-      <c r="AG49" s="112"/>
-      <c r="AH49" s="112"/>
-      <c r="AI49" s="112"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="52"/>
       <c r="AJ49" s="30"/>
     </row>
     <row r="50" spans="1:36" ht="15" customHeight="1">
       <c r="A50" s="29"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="119"/>
-      <c r="P50" s="119"/>
-      <c r="Q50" s="119"/>
-      <c r="R50" s="81"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="97"/>
+      <c r="L50" s="101"/>
+      <c r="M50" s="102"/>
+      <c r="N50" s="102"/>
+      <c r="O50" s="102"/>
+      <c r="P50" s="102"/>
+      <c r="Q50" s="102"/>
+      <c r="R50" s="103"/>
       <c r="AC50" s="30"/>
       <c r="AD50" s="29"/>
-      <c r="AE50" s="112"/>
-      <c r="AF50" s="112"/>
-      <c r="AG50" s="112"/>
-      <c r="AH50" s="112"/>
-      <c r="AI50" s="112"/>
+      <c r="AE50" s="52"/>
+      <c r="AF50" s="52"/>
+      <c r="AG50" s="52"/>
+      <c r="AH50" s="52"/>
+      <c r="AI50" s="52"/>
       <c r="AJ50" s="30"/>
     </row>
     <row r="51" spans="1:36" ht="15" customHeight="1">
       <c r="A51" s="29"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="119"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="119"/>
-      <c r="P51" s="119"/>
-      <c r="Q51" s="119"/>
-      <c r="R51" s="81"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="96"/>
+      <c r="K51" s="97"/>
+      <c r="L51" s="101"/>
+      <c r="M51" s="102"/>
+      <c r="N51" s="102"/>
+      <c r="O51" s="102"/>
+      <c r="P51" s="102"/>
+      <c r="Q51" s="102"/>
+      <c r="R51" s="103"/>
       <c r="AC51" s="30"/>
       <c r="AD51" s="29"/>
-      <c r="AE51" s="112"/>
-      <c r="AF51" s="112"/>
-      <c r="AG51" s="112"/>
-      <c r="AH51" s="112"/>
-      <c r="AI51" s="112"/>
+      <c r="AE51" s="52"/>
+      <c r="AF51" s="52"/>
+      <c r="AG51" s="52"/>
+      <c r="AH51" s="52"/>
+      <c r="AI51" s="52"/>
       <c r="AJ51" s="30"/>
     </row>
     <row r="52" spans="1:36" ht="15" customHeight="1">
       <c r="A52" s="29"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="119"/>
-      <c r="O52" s="119"/>
-      <c r="P52" s="119"/>
-      <c r="Q52" s="119"/>
-      <c r="R52" s="81"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="101"/>
+      <c r="M52" s="102"/>
+      <c r="N52" s="102"/>
+      <c r="O52" s="102"/>
+      <c r="P52" s="102"/>
+      <c r="Q52" s="102"/>
+      <c r="R52" s="103"/>
       <c r="AC52" s="30"/>
       <c r="AD52" s="29"/>
-      <c r="AE52" s="112"/>
-      <c r="AF52" s="112"/>
-      <c r="AG52" s="112"/>
-      <c r="AH52" s="112"/>
-      <c r="AI52" s="112"/>
+      <c r="AE52" s="52"/>
+      <c r="AF52" s="52"/>
+      <c r="AG52" s="52"/>
+      <c r="AH52" s="52"/>
+      <c r="AI52" s="52"/>
       <c r="AJ52" s="30"/>
     </row>
     <row r="53" spans="1:36" ht="15" customHeight="1">
       <c r="A53" s="29"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="119"/>
-      <c r="N53" s="119"/>
-      <c r="O53" s="119"/>
-      <c r="P53" s="119"/>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="81"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="97"/>
+      <c r="L53" s="101"/>
+      <c r="M53" s="102"/>
+      <c r="N53" s="102"/>
+      <c r="O53" s="102"/>
+      <c r="P53" s="102"/>
+      <c r="Q53" s="102"/>
+      <c r="R53" s="103"/>
       <c r="AC53" s="30"/>
       <c r="AD53" s="29"/>
-      <c r="AE53" s="112"/>
-      <c r="AF53" s="112"/>
-      <c r="AG53" s="112"/>
-      <c r="AH53" s="112"/>
-      <c r="AI53" s="112"/>
+      <c r="AE53" s="52"/>
+      <c r="AF53" s="52"/>
+      <c r="AG53" s="52"/>
+      <c r="AH53" s="52"/>
+      <c r="AI53" s="52"/>
       <c r="AJ53" s="30"/>
     </row>
     <row r="54" spans="1:36" ht="15" customHeight="1">
       <c r="A54" s="29"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="119"/>
-      <c r="N54" s="119"/>
-      <c r="O54" s="119"/>
-      <c r="P54" s="119"/>
-      <c r="Q54" s="119"/>
-      <c r="R54" s="81"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="97"/>
+      <c r="L54" s="101"/>
+      <c r="M54" s="102"/>
+      <c r="N54" s="102"/>
+      <c r="O54" s="102"/>
+      <c r="P54" s="102"/>
+      <c r="Q54" s="102"/>
+      <c r="R54" s="103"/>
       <c r="AC54" s="30"/>
       <c r="AD54" s="29"/>
-      <c r="AE54" s="112"/>
-      <c r="AF54" s="112"/>
-      <c r="AG54" s="112"/>
-      <c r="AH54" s="112"/>
-      <c r="AI54" s="112"/>
+      <c r="AE54" s="52"/>
+      <c r="AF54" s="52"/>
+      <c r="AG54" s="52"/>
+      <c r="AH54" s="52"/>
+      <c r="AI54" s="52"/>
       <c r="AJ54" s="30"/>
     </row>
     <row r="55" spans="1:36" ht="15" customHeight="1">
       <c r="A55" s="29"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="119"/>
-      <c r="N55" s="119"/>
-      <c r="O55" s="119"/>
-      <c r="P55" s="119"/>
-      <c r="Q55" s="119"/>
-      <c r="R55" s="81"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="96"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="97"/>
+      <c r="L55" s="101"/>
+      <c r="M55" s="102"/>
+      <c r="N55" s="102"/>
+      <c r="O55" s="102"/>
+      <c r="P55" s="102"/>
+      <c r="Q55" s="102"/>
+      <c r="R55" s="103"/>
       <c r="AC55" s="30"/>
       <c r="AD55" s="29"/>
-      <c r="AE55" s="112"/>
-      <c r="AF55" s="112"/>
-      <c r="AG55" s="112"/>
-      <c r="AH55" s="112"/>
-      <c r="AI55" s="112"/>
+      <c r="AE55" s="52"/>
+      <c r="AF55" s="52"/>
+      <c r="AG55" s="52"/>
+      <c r="AH55" s="52"/>
+      <c r="AI55" s="52"/>
       <c r="AJ55" s="30"/>
     </row>
     <row r="56" spans="1:36" ht="15" customHeight="1">
       <c r="A56" s="29"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="80"/>
-      <c r="M56" s="119"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="119"/>
-      <c r="P56" s="119"/>
-      <c r="Q56" s="119"/>
-      <c r="R56" s="81"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="97"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="102"/>
+      <c r="N56" s="102"/>
+      <c r="O56" s="102"/>
+      <c r="P56" s="102"/>
+      <c r="Q56" s="102"/>
+      <c r="R56" s="103"/>
       <c r="AC56" s="30"/>
       <c r="AD56" s="29"/>
-      <c r="AE56" s="112"/>
-      <c r="AF56" s="112"/>
-      <c r="AG56" s="112"/>
-      <c r="AH56" s="112"/>
-      <c r="AI56" s="112"/>
+      <c r="AE56" s="52"/>
+      <c r="AF56" s="52"/>
+      <c r="AG56" s="52"/>
+      <c r="AH56" s="52"/>
+      <c r="AI56" s="52"/>
       <c r="AJ56" s="30"/>
     </row>
     <row r="57" spans="1:36" ht="15" customHeight="1">
       <c r="A57" s="29"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="119"/>
-      <c r="N57" s="119"/>
-      <c r="O57" s="119"/>
-      <c r="P57" s="119"/>
-      <c r="Q57" s="119"/>
-      <c r="R57" s="81"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="97"/>
+      <c r="L57" s="101"/>
+      <c r="M57" s="102"/>
+      <c r="N57" s="102"/>
+      <c r="O57" s="102"/>
+      <c r="P57" s="102"/>
+      <c r="Q57" s="102"/>
+      <c r="R57" s="103"/>
       <c r="AC57" s="30"/>
       <c r="AD57" s="29"/>
-      <c r="AE57" s="112"/>
-      <c r="AF57" s="112"/>
-      <c r="AG57" s="112"/>
-      <c r="AH57" s="112"/>
-      <c r="AI57" s="112"/>
+      <c r="AE57" s="52"/>
+      <c r="AF57" s="52"/>
+      <c r="AG57" s="52"/>
+      <c r="AH57" s="52"/>
+      <c r="AI57" s="52"/>
       <c r="AJ57" s="30"/>
     </row>
     <row r="58" spans="1:36" ht="15" customHeight="1">
       <c r="A58" s="29"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="119"/>
-      <c r="N58" s="119"/>
-      <c r="O58" s="119"/>
-      <c r="P58" s="119"/>
-      <c r="Q58" s="119"/>
-      <c r="R58" s="81"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="97"/>
+      <c r="L58" s="101"/>
+      <c r="M58" s="102"/>
+      <c r="N58" s="102"/>
+      <c r="O58" s="102"/>
+      <c r="P58" s="102"/>
+      <c r="Q58" s="102"/>
+      <c r="R58" s="103"/>
       <c r="AC58" s="30"/>
       <c r="AD58" s="29"/>
-      <c r="AE58" s="112"/>
-      <c r="AF58" s="112"/>
-      <c r="AG58" s="112"/>
-      <c r="AH58" s="112"/>
-      <c r="AI58" s="112"/>
+      <c r="AE58" s="52"/>
+      <c r="AF58" s="52"/>
+      <c r="AG58" s="52"/>
+      <c r="AH58" s="52"/>
+      <c r="AI58" s="52"/>
       <c r="AJ58" s="30"/>
     </row>
     <row r="59" spans="1:36" ht="15" customHeight="1">
       <c r="A59" s="29"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="119"/>
-      <c r="N59" s="119"/>
-      <c r="O59" s="119"/>
-      <c r="P59" s="119"/>
-      <c r="Q59" s="119"/>
-      <c r="R59" s="81"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="96"/>
+      <c r="K59" s="97"/>
+      <c r="L59" s="101"/>
+      <c r="M59" s="102"/>
+      <c r="N59" s="102"/>
+      <c r="O59" s="102"/>
+      <c r="P59" s="102"/>
+      <c r="Q59" s="102"/>
+      <c r="R59" s="103"/>
       <c r="AC59" s="30"/>
       <c r="AD59" s="29"/>
-      <c r="AE59" s="112"/>
-      <c r="AF59" s="112"/>
-      <c r="AG59" s="112"/>
-      <c r="AH59" s="112"/>
-      <c r="AI59" s="112"/>
+      <c r="AE59" s="52"/>
+      <c r="AF59" s="52"/>
+      <c r="AG59" s="52"/>
+      <c r="AH59" s="52"/>
+      <c r="AI59" s="52"/>
       <c r="AJ59" s="30"/>
     </row>
     <row r="60" spans="1:36" ht="16.5" customHeight="1">
       <c r="A60" s="29"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="75"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="120"/>
-      <c r="M60" s="121"/>
-      <c r="N60" s="121"/>
-      <c r="O60" s="121"/>
-      <c r="P60" s="121"/>
-      <c r="Q60" s="121"/>
-      <c r="R60" s="122"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="96"/>
+      <c r="J60" s="96"/>
+      <c r="K60" s="97"/>
+      <c r="L60" s="104"/>
+      <c r="M60" s="105"/>
+      <c r="N60" s="105"/>
+      <c r="O60" s="105"/>
+      <c r="P60" s="105"/>
+      <c r="Q60" s="105"/>
+      <c r="R60" s="106"/>
       <c r="AC60" s="30"/>
       <c r="AD60" s="29"/>
-      <c r="AE60" s="112"/>
-      <c r="AF60" s="112"/>
-      <c r="AG60" s="112"/>
-      <c r="AH60" s="112"/>
-      <c r="AI60" s="112"/>
+      <c r="AE60" s="52"/>
+      <c r="AF60" s="52"/>
+      <c r="AG60" s="52"/>
+      <c r="AH60" s="52"/>
+      <c r="AI60" s="52"/>
       <c r="AJ60" s="30"/>
     </row>
     <row r="61" spans="1:36" ht="15" customHeight="1">
       <c r="A61" s="29"/>
-      <c r="C61" s="90" t="s">
+      <c r="C61" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="91"/>
-      <c r="E61" s="91"/>
-      <c r="F61" s="91"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="91"/>
-      <c r="I61" s="91"/>
-      <c r="J61" s="91"/>
-      <c r="K61" s="92"/>
-      <c r="L61" s="90" t="s">
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="108"/>
+      <c r="K61" s="109"/>
+      <c r="L61" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="M61" s="91"/>
-      <c r="N61" s="91"/>
-      <c r="O61" s="91"/>
-      <c r="P61" s="91"/>
-      <c r="Q61" s="91"/>
-      <c r="R61" s="92"/>
+      <c r="M61" s="108"/>
+      <c r="N61" s="108"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="108"/>
+      <c r="Q61" s="108"/>
+      <c r="R61" s="109"/>
       <c r="AC61" s="30"/>
       <c r="AD61" s="29"/>
-      <c r="AE61" s="112"/>
-      <c r="AF61" s="112"/>
-      <c r="AG61" s="112"/>
-      <c r="AH61" s="112"/>
-      <c r="AI61" s="112"/>
+      <c r="AE61" s="52"/>
+      <c r="AF61" s="52"/>
+      <c r="AG61" s="52"/>
+      <c r="AH61" s="52"/>
+      <c r="AI61" s="52"/>
       <c r="AJ61" s="30"/>
     </row>
     <row r="62" spans="1:36" ht="15" customHeight="1">
       <c r="A62" s="29"/>
-      <c r="C62" s="65" t="s">
+      <c r="C62" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="71" t="s">
+      <c r="D62" s="110"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="110"/>
+      <c r="I62" s="110"/>
+      <c r="J62" s="110"/>
+      <c r="K62" s="111"/>
+      <c r="L62" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="M62" s="114"/>
-      <c r="N62" s="114"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="114"/>
-      <c r="Q62" s="114"/>
-      <c r="R62" s="115"/>
+      <c r="M62" s="116"/>
+      <c r="N62" s="116"/>
+      <c r="O62" s="116"/>
+      <c r="P62" s="116"/>
+      <c r="Q62" s="116"/>
+      <c r="R62" s="117"/>
       <c r="AC62" s="30"/>
       <c r="AD62" s="29"/>
-      <c r="AE62" s="112"/>
-      <c r="AF62" s="112"/>
-      <c r="AG62" s="112"/>
-      <c r="AH62" s="112"/>
-      <c r="AI62" s="112"/>
+      <c r="AE62" s="52"/>
+      <c r="AF62" s="52"/>
+      <c r="AG62" s="52"/>
+      <c r="AH62" s="52"/>
+      <c r="AI62" s="52"/>
       <c r="AJ62" s="30"/>
     </row>
     <row r="63" spans="1:36" ht="15" customHeight="1">
       <c r="A63" s="29"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="116"/>
-      <c r="M63" s="117"/>
-      <c r="N63" s="117"/>
-      <c r="O63" s="117"/>
-      <c r="P63" s="117"/>
-      <c r="Q63" s="117"/>
-      <c r="R63" s="118"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
+      <c r="G63" s="113"/>
+      <c r="H63" s="113"/>
+      <c r="I63" s="113"/>
+      <c r="J63" s="113"/>
+      <c r="K63" s="114"/>
+      <c r="L63" s="118"/>
+      <c r="M63" s="119"/>
+      <c r="N63" s="119"/>
+      <c r="O63" s="119"/>
+      <c r="P63" s="119"/>
+      <c r="Q63" s="119"/>
+      <c r="R63" s="120"/>
       <c r="AC63" s="30"/>
       <c r="AD63" s="29"/>
-      <c r="AE63" s="112"/>
-      <c r="AF63" s="112"/>
-      <c r="AG63" s="112"/>
-      <c r="AH63" s="112"/>
-      <c r="AI63" s="112"/>
+      <c r="AE63" s="52"/>
+      <c r="AF63" s="52"/>
+      <c r="AG63" s="52"/>
+      <c r="AH63" s="52"/>
+      <c r="AI63" s="52"/>
       <c r="AJ63" s="30"/>
     </row>
     <row r="64" spans="1:36" ht="15" customHeight="1">
       <c r="A64" s="29"/>
       <c r="AC64" s="30"/>
       <c r="AD64" s="29"/>
-      <c r="AE64" s="112"/>
-      <c r="AF64" s="112"/>
-      <c r="AG64" s="112"/>
-      <c r="AH64" s="112"/>
-      <c r="AI64" s="112"/>
+      <c r="AE64" s="52"/>
+      <c r="AF64" s="52"/>
+      <c r="AG64" s="52"/>
+      <c r="AH64" s="52"/>
+      <c r="AI64" s="52"/>
       <c r="AJ64" s="30"/>
     </row>
     <row r="65" spans="1:36" ht="15" customHeight="1">
@@ -5938,11 +5929,11 @@
       </c>
       <c r="AC65" s="30"/>
       <c r="AD65" s="29"/>
-      <c r="AE65" s="112"/>
-      <c r="AF65" s="112"/>
-      <c r="AG65" s="112"/>
-      <c r="AH65" s="112"/>
-      <c r="AI65" s="112"/>
+      <c r="AE65" s="52"/>
+      <c r="AF65" s="52"/>
+      <c r="AG65" s="52"/>
+      <c r="AH65" s="52"/>
+      <c r="AI65" s="52"/>
       <c r="AJ65" s="30"/>
     </row>
     <row r="66" spans="1:36" ht="15" customHeight="1">
@@ -5952,11 +5943,11 @@
       </c>
       <c r="AC66" s="30"/>
       <c r="AD66" s="29"/>
-      <c r="AE66" s="112"/>
-      <c r="AF66" s="112"/>
-      <c r="AG66" s="112"/>
-      <c r="AH66" s="112"/>
-      <c r="AI66" s="112"/>
+      <c r="AE66" s="52"/>
+      <c r="AF66" s="52"/>
+      <c r="AG66" s="52"/>
+      <c r="AH66" s="52"/>
+      <c r="AI66" s="52"/>
       <c r="AJ66" s="30"/>
     </row>
     <row r="67" spans="1:36" ht="15" customHeight="1">
@@ -5964,11 +5955,11 @@
       <c r="B67" s="42"/>
       <c r="AC67" s="30"/>
       <c r="AD67" s="29"/>
-      <c r="AE67" s="112"/>
-      <c r="AF67" s="112"/>
-      <c r="AG67" s="112"/>
-      <c r="AH67" s="112"/>
-      <c r="AI67" s="112"/>
+      <c r="AE67" s="52"/>
+      <c r="AF67" s="52"/>
+      <c r="AG67" s="52"/>
+      <c r="AH67" s="52"/>
+      <c r="AI67" s="52"/>
       <c r="AJ67" s="30"/>
     </row>
     <row r="68" spans="1:36" ht="15" customHeight="1">
@@ -5981,11 +5972,11 @@
       </c>
       <c r="AC68" s="30"/>
       <c r="AD68" s="29"/>
-      <c r="AE68" s="112"/>
-      <c r="AF68" s="112"/>
-      <c r="AG68" s="112"/>
-      <c r="AH68" s="112"/>
-      <c r="AI68" s="112"/>
+      <c r="AE68" s="52"/>
+      <c r="AF68" s="52"/>
+      <c r="AG68" s="52"/>
+      <c r="AH68" s="52"/>
+      <c r="AI68" s="52"/>
       <c r="AJ68" s="30"/>
     </row>
     <row r="69" spans="1:36" ht="15" customHeight="1">
@@ -5995,22 +5986,22 @@
       </c>
       <c r="AC69" s="30"/>
       <c r="AD69" s="29"/>
-      <c r="AE69" s="112"/>
-      <c r="AF69" s="112"/>
-      <c r="AG69" s="112"/>
-      <c r="AH69" s="112"/>
-      <c r="AI69" s="112"/>
+      <c r="AE69" s="52"/>
+      <c r="AF69" s="52"/>
+      <c r="AG69" s="52"/>
+      <c r="AH69" s="52"/>
+      <c r="AI69" s="52"/>
       <c r="AJ69" s="30"/>
     </row>
     <row r="70" spans="1:36" ht="15" customHeight="1">
       <c r="A70" s="29"/>
       <c r="AC70" s="30"/>
       <c r="AD70" s="29"/>
-      <c r="AE70" s="112"/>
-      <c r="AF70" s="112"/>
-      <c r="AG70" s="112"/>
-      <c r="AH70" s="112"/>
-      <c r="AI70" s="112"/>
+      <c r="AE70" s="52"/>
+      <c r="AF70" s="52"/>
+      <c r="AG70" s="52"/>
+      <c r="AH70" s="52"/>
+      <c r="AI70" s="52"/>
       <c r="AJ70" s="30"/>
     </row>
     <row r="71" spans="1:36" ht="15" customHeight="1">
@@ -6023,11 +6014,11 @@
       </c>
       <c r="AC71" s="30"/>
       <c r="AD71" s="29"/>
-      <c r="AE71" s="112"/>
-      <c r="AF71" s="112"/>
-      <c r="AG71" s="112"/>
-      <c r="AH71" s="112"/>
-      <c r="AI71" s="112"/>
+      <c r="AE71" s="52"/>
+      <c r="AF71" s="52"/>
+      <c r="AG71" s="52"/>
+      <c r="AH71" s="52"/>
+      <c r="AI71" s="52"/>
       <c r="AJ71" s="30"/>
     </row>
     <row r="72" spans="1:36" ht="15" customHeight="1">
@@ -6037,11 +6028,11 @@
       </c>
       <c r="AC72" s="30"/>
       <c r="AD72" s="29"/>
-      <c r="AE72" s="112"/>
-      <c r="AF72" s="112"/>
-      <c r="AG72" s="112"/>
-      <c r="AH72" s="112"/>
-      <c r="AI72" s="112"/>
+      <c r="AE72" s="52"/>
+      <c r="AF72" s="52"/>
+      <c r="AG72" s="52"/>
+      <c r="AH72" s="52"/>
+      <c r="AI72" s="52"/>
       <c r="AJ72" s="30"/>
     </row>
     <row r="73" spans="1:36" ht="15" customHeight="1">
@@ -6051,22 +6042,22 @@
       </c>
       <c r="AC73" s="30"/>
       <c r="AD73" s="29"/>
-      <c r="AE73" s="112"/>
-      <c r="AF73" s="112"/>
-      <c r="AG73" s="112"/>
-      <c r="AH73" s="112"/>
-      <c r="AI73" s="112"/>
+      <c r="AE73" s="52"/>
+      <c r="AF73" s="52"/>
+      <c r="AG73" s="52"/>
+      <c r="AH73" s="52"/>
+      <c r="AI73" s="52"/>
       <c r="AJ73" s="30"/>
     </row>
     <row r="74" spans="1:36" ht="15" customHeight="1">
       <c r="A74" s="29"/>
       <c r="AC74" s="30"/>
       <c r="AD74" s="29"/>
-      <c r="AE74" s="112"/>
-      <c r="AF74" s="112"/>
-      <c r="AG74" s="112"/>
-      <c r="AH74" s="112"/>
-      <c r="AI74" s="112"/>
+      <c r="AE74" s="52"/>
+      <c r="AF74" s="52"/>
+      <c r="AG74" s="52"/>
+      <c r="AH74" s="52"/>
+      <c r="AI74" s="52"/>
       <c r="AJ74" s="30"/>
     </row>
     <row r="75" spans="1:36" ht="15" customHeight="1">
@@ -6104,11 +6095,11 @@
       <c r="AB75" s="46"/>
       <c r="AC75" s="30"/>
       <c r="AD75" s="29"/>
-      <c r="AE75" s="112"/>
-      <c r="AF75" s="112"/>
-      <c r="AG75" s="112"/>
-      <c r="AH75" s="112"/>
-      <c r="AI75" s="112"/>
+      <c r="AE75" s="52"/>
+      <c r="AF75" s="52"/>
+      <c r="AG75" s="52"/>
+      <c r="AH75" s="52"/>
+      <c r="AI75" s="52"/>
       <c r="AJ75" s="30"/>
     </row>
     <row r="76" spans="1:36" ht="15" customHeight="1">
@@ -6144,11 +6135,11 @@
       <c r="AB76" s="46"/>
       <c r="AC76" s="30"/>
       <c r="AD76" s="29"/>
-      <c r="AE76" s="112"/>
-      <c r="AF76" s="112"/>
-      <c r="AG76" s="112"/>
-      <c r="AH76" s="112"/>
-      <c r="AI76" s="112"/>
+      <c r="AE76" s="52"/>
+      <c r="AF76" s="52"/>
+      <c r="AG76" s="52"/>
+      <c r="AH76" s="52"/>
+      <c r="AI76" s="52"/>
       <c r="AJ76" s="30"/>
     </row>
     <row r="77" spans="1:36" ht="15" customHeight="1">
@@ -6184,11 +6175,11 @@
       <c r="AB77" s="46"/>
       <c r="AC77" s="30"/>
       <c r="AD77" s="29"/>
-      <c r="AE77" s="112"/>
-      <c r="AF77" s="112"/>
-      <c r="AG77" s="112"/>
-      <c r="AH77" s="112"/>
-      <c r="AI77" s="112"/>
+      <c r="AE77" s="52"/>
+      <c r="AF77" s="52"/>
+      <c r="AG77" s="52"/>
+      <c r="AH77" s="52"/>
+      <c r="AI77" s="52"/>
       <c r="AJ77" s="30"/>
     </row>
     <row r="78" spans="1:36" ht="15" customHeight="1">
@@ -6231,65 +6222,6 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="C48:K60"/>
-    <mergeCell ref="L48:R60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="L61:R61"/>
-    <mergeCell ref="C62:K63"/>
-    <mergeCell ref="L62:R63"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="C45:K46"/>
-    <mergeCell ref="L45:R46"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="L47:R47"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:R43"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:R40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:R41"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:R34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:R35"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:R32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:R33"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:R30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="L31:R31"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L27:R27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:R28"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:R29"/>
@@ -6306,6 +6238,65 @@
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L27:R27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:R28"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:R30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:R31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:R32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:R33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:R34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:R40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:R41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:R43"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="C45:K46"/>
+    <mergeCell ref="L45:R46"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="L47:R47"/>
+    <mergeCell ref="C48:K60"/>
+    <mergeCell ref="L48:R60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="L61:R61"/>
+    <mergeCell ref="C62:K63"/>
+    <mergeCell ref="L62:R63"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/03.設計/設定値定義書_STB99（CONFIG）.xlsx
+++ b/03.設計/設定値定義書_STB99（CONFIG）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micch\OneDrive\デスクトップ\PGP_source\03.設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micch\OneDrive\デスクトップ\PGP\03.設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="439">
   <si>
     <t>プロジェクト番号</t>
     <rPh sb="6" eb="8">
@@ -262,14 +262,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TM</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>詳細設計書_99_CONFIG</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -488,9 +480,6 @@
     <t>emy_f</t>
   </si>
   <si>
-    <t>emy_col</t>
-  </si>
-  <si>
     <t>emy_x</t>
   </si>
   <si>
@@ -1367,9 +1356,6 @@
     <t>エネミーが存在するか</t>
   </si>
   <si>
-    <t>エネミーの色(タイプ)</t>
-  </si>
-  <si>
     <t>移動スピード</t>
   </si>
   <si>
@@ -1462,13 +1448,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>エネミーカラー配列</t>
-    <rPh sb="7" eb="9">
-      <t>ハイレツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>プレイヤーX座標</t>
     <rPh sb="6" eb="8">
       <t>ザヒョウ</t>
@@ -2200,6 +2179,128 @@
   </si>
   <si>
     <t>プレイヤーカラー（使用するアイテムで変化）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>emy_type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エネミーの種類(タイプ)</t>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エネミータイプ配列</t>
+    <rPh sb="7" eb="9">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ハイスピードエネミー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ノーマルエネミー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロウスピードエネミー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ポイントバイトエネミー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ゴールブレイクエネミー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイテムデリートエネミー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ENEMY_A</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ENEMY_B</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ENEMY_C</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ENEMY_D</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ENEMY_E</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ENEMY_F</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>高速で動くエネミー</t>
+    <rPh sb="0" eb="2">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>通常のエネミー</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>低速で動くエネミー</t>
+    <rPh sb="0" eb="2">
+      <t>テイソク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ポイントを捕食するエネミー</t>
+    <rPh sb="5" eb="7">
+      <t>ホショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ゴールを破壊するエネミー</t>
+    <rPh sb="4" eb="6">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイテムを削除するエネミー</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2708,6 +2809,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2722,54 +2841,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2789,7 +2860,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2809,6 +2886,30 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3207,7 +3308,7 @@
     <row r="7" spans="3:16" ht="49.2" customHeight="1">
       <c r="C7" s="7"/>
       <c r="D7" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
@@ -3295,7 +3396,7 @@
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="33" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
@@ -3384,58 +3485,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
       <c r="P1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="39" t="str">
+      <c r="Q1" s="45" t="str">
         <f>D5</f>
-        <v>TM</v>
-      </c>
-      <c r="R1" s="39"/>
+        <v>MT</v>
+      </c>
+      <c r="R1" s="45"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
       <c r="P2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="40">
+      <c r="Q2" s="46">
         <f>B5</f>
         <v>45170</v>
       </c>
-      <c r="R2" s="39"/>
+      <c r="R2" s="45"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="19"/>
@@ -3461,435 +3562,435 @@
       <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="21">
         <v>1</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="40">
         <v>45170</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="22">
         <v>2</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="22">
         <v>3</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="22">
         <v>4</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="22">
         <v>5</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="22">
         <v>6</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="22">
         <v>7</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="22">
         <v>8</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="22">
         <v>9</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="22">
         <v>10</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="22">
         <v>11</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="22">
         <v>12</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="22">
         <v>13</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="22">
         <v>14</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="22">
         <v>15</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="22">
         <v>16</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="22">
         <v>17</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="22">
         <v>18</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -3900,6 +4001,78 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:R20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -3908,78 +4081,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -3990,7 +4091,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ134"/>
+  <dimension ref="A1:AJ129"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -4009,170 +4110,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="56" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="68" t="str">
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="60" t="str">
         <f>表紙!D6</f>
         <v>Street Biter (STB)</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="56" t="s">
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="54" t="str">
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="64" t="str">
         <f>更新履歴!D5</f>
-        <v>TM</v>
-      </c>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54" t="s">
+        <v>MT</v>
+      </c>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="53" t="str">
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="63" t="str">
         <f>VLOOKUP(MAX(更新履歴!B:B),更新履歴!B:D,3,FALSE)</f>
-        <v>TM</v>
-      </c>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
+        <v>MT</v>
+      </c>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="56" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="65" t="str">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57" t="str">
         <f>RIGHT(表紙!D7,LEN(表紙!D7)-FIND("_",表紙!D7))</f>
         <v>99_CONFIG</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="56" t="s">
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="55">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="65">
         <f>更新履歴!B5</f>
         <v>45170</v>
       </c>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="54" t="s">
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="55">
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="65">
         <f>MAX(更新履歴!B:B)</f>
         <v>45170</v>
       </c>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
     </row>
     <row r="3" spans="1:36" ht="26.4" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="52"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="70"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1">
       <c r="A4" s="25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="26"/>
@@ -4180,7 +4281,7 @@
       <c r="I4" s="27"/>
       <c r="J4" s="24"/>
       <c r="K4" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
@@ -4196,7 +4297,7 @@
       <c r="U4" s="27"/>
       <c r="V4" s="24"/>
       <c r="W4" s="25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X4" s="27"/>
       <c r="Y4" s="27"/>
@@ -4214,13 +4315,13 @@
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="26"/>
@@ -4228,7 +4329,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="24"/>
       <c r="K5" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
@@ -4244,7 +4345,7 @@
       <c r="U5" s="27"/>
       <c r="V5" s="24"/>
       <c r="W5" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X5" s="27"/>
       <c r="Y5" s="27"/>
@@ -4262,13 +4363,13 @@
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="26"/>
@@ -4276,7 +4377,7 @@
       <c r="I6" s="27"/>
       <c r="J6" s="24"/>
       <c r="K6" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
@@ -4292,7 +4393,7 @@
       <c r="U6" s="27"/>
       <c r="V6" s="24"/>
       <c r="W6" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="X6" s="27"/>
       <c r="Y6" s="27"/>
@@ -4310,13 +4411,13 @@
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="26"/>
@@ -4324,7 +4425,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="24"/>
       <c r="K7" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
@@ -4340,7 +4441,7 @@
       <c r="U7" s="27"/>
       <c r="V7" s="24"/>
       <c r="W7" s="27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="X7" s="27"/>
       <c r="Y7" s="27"/>
@@ -4358,13 +4459,13 @@
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="26"/>
@@ -4372,7 +4473,7 @@
       <c r="I8" s="27"/>
       <c r="J8" s="24"/>
       <c r="K8" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
@@ -4388,7 +4489,7 @@
       <c r="U8" s="27"/>
       <c r="V8" s="24"/>
       <c r="W8" s="27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="X8" s="27"/>
       <c r="Y8" s="27"/>
@@ -4406,13 +4507,13 @@
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="26"/>
@@ -4420,7 +4521,7 @@
       <c r="I9" s="27"/>
       <c r="J9" s="24"/>
       <c r="K9" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
@@ -4436,7 +4537,7 @@
       <c r="U9" s="27"/>
       <c r="V9" s="24"/>
       <c r="W9" s="27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X9" s="27"/>
       <c r="Y9" s="27"/>
@@ -4454,13 +4555,13 @@
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="26"/>
@@ -4468,7 +4569,7 @@
       <c r="I10" s="27"/>
       <c r="J10" s="24"/>
       <c r="K10" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
@@ -4484,7 +4585,7 @@
       <c r="U10" s="27"/>
       <c r="V10" s="24"/>
       <c r="W10" s="27" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="X10" s="27"/>
       <c r="Y10" s="27"/>
@@ -4502,13 +4603,13 @@
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="26"/>
@@ -4516,7 +4617,7 @@
       <c r="I11" s="27"/>
       <c r="J11" s="24"/>
       <c r="K11" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -4532,7 +4633,7 @@
       <c r="U11" s="27"/>
       <c r="V11" s="24"/>
       <c r="W11" s="27" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="X11" s="27"/>
       <c r="Y11" s="27"/>
@@ -4550,13 +4651,13 @@
     </row>
     <row r="12" spans="1:36" ht="15" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="26"/>
@@ -4564,7 +4665,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="24"/>
       <c r="K12" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -4580,7 +4681,7 @@
       <c r="U12" s="27"/>
       <c r="V12" s="24"/>
       <c r="W12" s="27" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="X12" s="27"/>
       <c r="Y12" s="27"/>
@@ -4598,13 +4699,13 @@
     </row>
     <row r="13" spans="1:36" ht="15" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="26"/>
@@ -4612,7 +4713,7 @@
       <c r="I13" s="27"/>
       <c r="J13" s="24"/>
       <c r="K13" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -4628,7 +4729,7 @@
       <c r="U13" s="27"/>
       <c r="V13" s="24"/>
       <c r="W13" s="27" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="X13" s="27"/>
       <c r="Y13" s="27"/>
@@ -4646,13 +4747,13 @@
     </row>
     <row r="14" spans="1:36" ht="15" customHeight="1">
       <c r="A14" s="25" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="26"/>
@@ -4660,7 +4761,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="24"/>
       <c r="K14" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -4676,7 +4777,7 @@
       <c r="U14" s="27"/>
       <c r="V14" s="24"/>
       <c r="W14" s="27" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="X14" s="27"/>
       <c r="Y14" s="27"/>
@@ -4694,13 +4795,13 @@
     </row>
     <row r="15" spans="1:36" ht="15" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="26"/>
@@ -4708,7 +4809,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="24"/>
       <c r="K15" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -4724,7 +4825,7 @@
       <c r="U15" s="27"/>
       <c r="V15" s="24"/>
       <c r="W15" s="27" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="X15" s="27"/>
       <c r="Y15" s="27"/>
@@ -4742,13 +4843,13 @@
     </row>
     <row r="16" spans="1:36" ht="15" customHeight="1">
       <c r="A16" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="26"/>
@@ -4756,7 +4857,7 @@
       <c r="I16" s="27"/>
       <c r="J16" s="24"/>
       <c r="K16" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -4772,7 +4873,7 @@
       <c r="U16" s="27"/>
       <c r="V16" s="24"/>
       <c r="W16" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="X16" s="27"/>
       <c r="Y16" s="27"/>
@@ -4790,13 +4891,13 @@
     </row>
     <row r="17" spans="1:36" ht="15" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="26"/>
@@ -4804,7 +4905,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="24"/>
       <c r="K17" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -4820,7 +4921,7 @@
       <c r="U17" s="27"/>
       <c r="V17" s="24"/>
       <c r="W17" s="27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="X17" s="27"/>
       <c r="Y17" s="27"/>
@@ -4838,13 +4939,13 @@
     </row>
     <row r="18" spans="1:36" ht="15" customHeight="1">
       <c r="A18" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="26"/>
@@ -4852,7 +4953,7 @@
       <c r="I18" s="27"/>
       <c r="J18" s="24"/>
       <c r="K18" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -4868,7 +4969,7 @@
       <c r="U18" s="27"/>
       <c r="V18" s="24"/>
       <c r="W18" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X18" s="27"/>
       <c r="Y18" s="27"/>
@@ -4886,13 +4987,13 @@
     </row>
     <row r="19" spans="1:36" ht="15" customHeight="1">
       <c r="A19" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="26"/>
@@ -4900,7 +5001,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="24"/>
       <c r="K19" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
@@ -4916,7 +5017,7 @@
       <c r="U19" s="27"/>
       <c r="V19" s="24"/>
       <c r="W19" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X19" s="27"/>
       <c r="Y19" s="27"/>
@@ -4934,13 +5035,13 @@
     </row>
     <row r="20" spans="1:36" ht="15" customHeight="1">
       <c r="A20" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="26"/>
@@ -4948,7 +5049,7 @@
       <c r="I20" s="27"/>
       <c r="J20" s="24"/>
       <c r="K20" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
@@ -4964,7 +5065,7 @@
       <c r="U20" s="27"/>
       <c r="V20" s="24"/>
       <c r="W20" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X20" s="27"/>
       <c r="Y20" s="27"/>
@@ -4982,13 +5083,13 @@
     </row>
     <row r="21" spans="1:36" ht="15" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="26"/>
@@ -4996,7 +5097,7 @@
       <c r="I21" s="27"/>
       <c r="J21" s="24"/>
       <c r="K21" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
@@ -5012,7 +5113,7 @@
       <c r="U21" s="27"/>
       <c r="V21" s="24"/>
       <c r="W21" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="X21" s="27"/>
       <c r="Y21" s="27"/>
@@ -5030,13 +5131,13 @@
     </row>
     <row r="22" spans="1:36" ht="15" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="26"/>
@@ -5044,7 +5145,7 @@
       <c r="I22" s="27"/>
       <c r="J22" s="24"/>
       <c r="K22" s="27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -5060,7 +5161,7 @@
       <c r="U22" s="27"/>
       <c r="V22" s="24"/>
       <c r="W22" s="27" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="X22" s="27"/>
       <c r="Y22" s="27"/>
@@ -5078,13 +5179,13 @@
     </row>
     <row r="23" spans="1:36" ht="15" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="26"/>
@@ -5092,7 +5193,7 @@
       <c r="I23" s="27"/>
       <c r="J23" s="24"/>
       <c r="K23" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
@@ -5108,7 +5209,7 @@
       <c r="U23" s="27"/>
       <c r="V23" s="24"/>
       <c r="W23" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="X23" s="27"/>
       <c r="Y23" s="27"/>
@@ -5126,13 +5227,13 @@
     </row>
     <row r="24" spans="1:36" ht="15" customHeight="1">
       <c r="A24" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="26"/>
@@ -5140,7 +5241,7 @@
       <c r="I24" s="27"/>
       <c r="J24" s="24"/>
       <c r="K24" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
@@ -5156,7 +5257,7 @@
       <c r="U24" s="27"/>
       <c r="V24" s="24"/>
       <c r="W24" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X24" s="27"/>
       <c r="Y24" s="27"/>
@@ -5174,13 +5275,13 @@
     </row>
     <row r="25" spans="1:36" ht="15" customHeight="1">
       <c r="A25" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="26"/>
@@ -5188,7 +5289,7 @@
       <c r="I25" s="27"/>
       <c r="J25" s="24"/>
       <c r="K25" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
@@ -5204,7 +5305,7 @@
       <c r="U25" s="27"/>
       <c r="V25" s="24"/>
       <c r="W25" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="X25" s="27"/>
       <c r="Y25" s="27"/>
@@ -5222,13 +5323,13 @@
     </row>
     <row r="26" spans="1:36" ht="15" customHeight="1">
       <c r="A26" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="26"/>
@@ -5236,7 +5337,7 @@
       <c r="I26" s="27"/>
       <c r="J26" s="24"/>
       <c r="K26" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
@@ -5252,7 +5353,7 @@
       <c r="U26" s="27"/>
       <c r="V26" s="24"/>
       <c r="W26" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X26" s="27"/>
       <c r="Y26" s="27"/>
@@ -5270,13 +5371,13 @@
     </row>
     <row r="27" spans="1:36" ht="15" customHeight="1">
       <c r="A27" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="26"/>
@@ -5284,7 +5385,7 @@
       <c r="I27" s="27"/>
       <c r="J27" s="24"/>
       <c r="K27" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
@@ -5300,7 +5401,7 @@
       <c r="U27" s="27"/>
       <c r="V27" s="24"/>
       <c r="W27" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X27" s="27"/>
       <c r="Y27" s="27"/>
@@ -5318,13 +5419,13 @@
     </row>
     <row r="28" spans="1:36" ht="15" customHeight="1">
       <c r="A28" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="26"/>
@@ -5332,7 +5433,7 @@
       <c r="I28" s="27"/>
       <c r="J28" s="24"/>
       <c r="K28" s="28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
@@ -5348,7 +5449,7 @@
       <c r="U28" s="27"/>
       <c r="V28" s="24"/>
       <c r="W28" s="27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
@@ -5366,13 +5467,13 @@
     </row>
     <row r="29" spans="1:36" ht="15" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="25" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="26"/>
@@ -5380,7 +5481,7 @@
       <c r="I29" s="27"/>
       <c r="J29" s="24"/>
       <c r="K29" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="27"/>
@@ -5388,7 +5489,7 @@
       <c r="O29" s="27"/>
       <c r="P29" s="27"/>
       <c r="Q29" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R29" s="27"/>
       <c r="S29" s="27"/>
@@ -5396,7 +5497,7 @@
       <c r="U29" s="27"/>
       <c r="V29" s="24"/>
       <c r="W29" s="27" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="X29" s="27"/>
       <c r="Y29" s="27"/>
@@ -5414,13 +5515,13 @@
     </row>
     <row r="30" spans="1:36" ht="15" customHeight="1">
       <c r="A30" s="25" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="25" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="26"/>
@@ -5428,7 +5529,7 @@
       <c r="I30" s="27"/>
       <c r="J30" s="24"/>
       <c r="K30" s="27" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L30" s="27"/>
       <c r="M30" s="27"/>
@@ -5444,7 +5545,7 @@
       <c r="U30" s="27"/>
       <c r="V30" s="24"/>
       <c r="W30" s="27" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
@@ -5462,13 +5563,13 @@
     </row>
     <row r="31" spans="1:36" ht="15" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="25" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="26"/>
@@ -5476,7 +5577,7 @@
       <c r="I31" s="27"/>
       <c r="J31" s="24"/>
       <c r="K31" s="27" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L31" s="27"/>
       <c r="M31" s="27"/>
@@ -5484,7 +5585,7 @@
       <c r="O31" s="27"/>
       <c r="P31" s="27"/>
       <c r="Q31" s="25" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="R31" s="27"/>
       <c r="S31" s="27"/>
@@ -5492,7 +5593,7 @@
       <c r="U31" s="27"/>
       <c r="V31" s="24"/>
       <c r="W31" s="27" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="X31" s="27"/>
       <c r="Y31" s="27"/>
@@ -5510,13 +5611,13 @@
     </row>
     <row r="32" spans="1:36" ht="15" customHeight="1">
       <c r="A32" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="26"/>
@@ -5524,7 +5625,7 @@
       <c r="I32" s="27"/>
       <c r="J32" s="24"/>
       <c r="K32" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
@@ -5540,7 +5641,7 @@
       <c r="U32" s="27"/>
       <c r="V32" s="24"/>
       <c r="W32" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="X32" s="27"/>
       <c r="Y32" s="27"/>
@@ -5558,13 +5659,13 @@
     </row>
     <row r="33" spans="1:36" ht="15" customHeight="1">
       <c r="A33" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="26"/>
@@ -5572,7 +5673,7 @@
       <c r="I33" s="27"/>
       <c r="J33" s="24"/>
       <c r="K33" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L33" s="27"/>
       <c r="M33" s="27"/>
@@ -5588,7 +5689,7 @@
       <c r="U33" s="27"/>
       <c r="V33" s="24"/>
       <c r="W33" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="X33" s="27"/>
       <c r="Y33" s="27"/>
@@ -5606,13 +5707,13 @@
     </row>
     <row r="34" spans="1:36" ht="15" customHeight="1">
       <c r="A34" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="26"/>
@@ -5620,7 +5721,7 @@
       <c r="I34" s="27"/>
       <c r="J34" s="24"/>
       <c r="K34" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L34" s="27"/>
       <c r="M34" s="27"/>
@@ -5636,7 +5737,7 @@
       <c r="U34" s="27"/>
       <c r="V34" s="24"/>
       <c r="W34" s="27" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="X34" s="27"/>
       <c r="Y34" s="27"/>
@@ -5654,13 +5755,13 @@
     </row>
     <row r="35" spans="1:36" ht="15" customHeight="1">
       <c r="A35" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="26"/>
@@ -5668,7 +5769,7 @@
       <c r="I35" s="27"/>
       <c r="J35" s="24"/>
       <c r="K35" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L35" s="27"/>
       <c r="M35" s="27"/>
@@ -5684,7 +5785,7 @@
       <c r="U35" s="27"/>
       <c r="V35" s="24"/>
       <c r="W35" s="27" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="X35" s="27"/>
       <c r="Y35" s="27"/>
@@ -5702,13 +5803,13 @@
     </row>
     <row r="36" spans="1:36" ht="15" customHeight="1">
       <c r="A36" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="26"/>
@@ -5716,7 +5817,7 @@
       <c r="I36" s="27"/>
       <c r="J36" s="24"/>
       <c r="K36" s="27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L36" s="27"/>
       <c r="M36" s="27"/>
@@ -5732,7 +5833,7 @@
       <c r="U36" s="27"/>
       <c r="V36" s="24"/>
       <c r="W36" s="27" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="X36" s="27"/>
       <c r="Y36" s="27"/>
@@ -5750,13 +5851,13 @@
     </row>
     <row r="37" spans="1:36" ht="15" customHeight="1">
       <c r="A37" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="26"/>
@@ -5764,7 +5865,7 @@
       <c r="I37" s="27"/>
       <c r="J37" s="24"/>
       <c r="K37" s="27" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L37" s="27"/>
       <c r="M37" s="27"/>
@@ -5780,7 +5881,7 @@
       <c r="U37" s="27"/>
       <c r="V37" s="24"/>
       <c r="W37" s="27" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="X37" s="27"/>
       <c r="Y37" s="27"/>
@@ -5798,13 +5899,13 @@
     </row>
     <row r="38" spans="1:36" ht="15" customHeight="1">
       <c r="A38" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="E38" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="26"/>
@@ -5812,7 +5913,7 @@
       <c r="I38" s="27"/>
       <c r="J38" s="24"/>
       <c r="K38" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L38" s="27"/>
       <c r="M38" s="27"/>
@@ -5820,7 +5921,7 @@
       <c r="O38" s="27"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R38" s="27"/>
       <c r="S38" s="27"/>
@@ -5828,7 +5929,7 @@
       <c r="U38" s="27"/>
       <c r="V38" s="24"/>
       <c r="W38" s="27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X38" s="27"/>
       <c r="Y38" s="27"/>
@@ -5846,13 +5947,13 @@
     </row>
     <row r="39" spans="1:36" ht="15" customHeight="1">
       <c r="A39" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="26"/>
@@ -5860,7 +5961,7 @@
       <c r="I39" s="27"/>
       <c r="J39" s="24"/>
       <c r="K39" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L39" s="27"/>
       <c r="M39" s="27"/>
@@ -5868,7 +5969,7 @@
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="R39" s="27"/>
       <c r="S39" s="27"/>
@@ -5876,7 +5977,7 @@
       <c r="U39" s="27"/>
       <c r="V39" s="24"/>
       <c r="W39" s="27" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="X39" s="27"/>
       <c r="Y39" s="27"/>
@@ -5894,13 +5995,13 @@
     </row>
     <row r="40" spans="1:36" ht="15" customHeight="1">
       <c r="A40" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
       <c r="E40" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="26"/>
@@ -5908,7 +6009,7 @@
       <c r="I40" s="27"/>
       <c r="J40" s="24"/>
       <c r="K40" s="27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L40" s="27"/>
       <c r="M40" s="27"/>
@@ -5924,7 +6025,7 @@
       <c r="U40" s="27"/>
       <c r="V40" s="24"/>
       <c r="W40" s="27" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="X40" s="27"/>
       <c r="Y40" s="27"/>
@@ -5942,13 +6043,13 @@
     </row>
     <row r="41" spans="1:36" ht="15" customHeight="1">
       <c r="A41" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="26"/>
@@ -5956,7 +6057,7 @@
       <c r="I41" s="27"/>
       <c r="J41" s="24"/>
       <c r="K41" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L41" s="27"/>
       <c r="M41" s="27"/>
@@ -5972,7 +6073,7 @@
       <c r="U41" s="27"/>
       <c r="V41" s="24"/>
       <c r="W41" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="X41" s="27"/>
       <c r="Y41" s="27"/>
@@ -5990,13 +6091,13 @@
     </row>
     <row r="42" spans="1:36" ht="15" customHeight="1">
       <c r="A42" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="25" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="26"/>
@@ -6004,7 +6105,7 @@
       <c r="I42" s="27"/>
       <c r="J42" s="24"/>
       <c r="K42" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L42" s="27"/>
       <c r="M42" s="27"/>
@@ -6020,7 +6121,7 @@
       <c r="U42" s="27"/>
       <c r="V42" s="24"/>
       <c r="W42" s="27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="X42" s="27"/>
       <c r="Y42" s="27"/>
@@ -6038,13 +6139,13 @@
     </row>
     <row r="43" spans="1:36" ht="15" customHeight="1">
       <c r="A43" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="25" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="26"/>
@@ -6052,7 +6153,7 @@
       <c r="I43" s="27"/>
       <c r="J43" s="24"/>
       <c r="K43" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L43" s="27"/>
       <c r="M43" s="27"/>
@@ -6068,7 +6169,7 @@
       <c r="U43" s="27"/>
       <c r="V43" s="24"/>
       <c r="W43" s="27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="X43" s="27"/>
       <c r="Y43" s="27"/>
@@ -6086,13 +6187,13 @@
     </row>
     <row r="44" spans="1:36" ht="15" customHeight="1">
       <c r="A44" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B44" s="26"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
       <c r="E44" s="25" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F44" s="27"/>
       <c r="G44" s="26"/>
@@ -6100,7 +6201,7 @@
       <c r="I44" s="27"/>
       <c r="J44" s="24"/>
       <c r="K44" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L44" s="27"/>
       <c r="M44" s="27"/>
@@ -6116,7 +6217,7 @@
       <c r="U44" s="27"/>
       <c r="V44" s="24"/>
       <c r="W44" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="X44" s="27"/>
       <c r="Y44" s="27"/>
@@ -6134,13 +6235,13 @@
     </row>
     <row r="45" spans="1:36" ht="15" customHeight="1">
       <c r="A45" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="E45" s="25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F45" s="27"/>
       <c r="G45" s="26"/>
@@ -6148,7 +6249,7 @@
       <c r="I45" s="27"/>
       <c r="J45" s="24"/>
       <c r="K45" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L45" s="27"/>
       <c r="M45" s="27"/>
@@ -6164,7 +6265,7 @@
       <c r="U45" s="27"/>
       <c r="V45" s="24"/>
       <c r="W45" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="X45" s="27"/>
       <c r="Y45" s="27"/>
@@ -6182,13 +6283,13 @@
     </row>
     <row r="46" spans="1:36" ht="15" customHeight="1">
       <c r="A46" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
       <c r="E46" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F46" s="27"/>
       <c r="G46" s="26"/>
@@ -6196,7 +6297,7 @@
       <c r="I46" s="27"/>
       <c r="J46" s="24"/>
       <c r="K46" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L46" s="27"/>
       <c r="M46" s="27"/>
@@ -6212,7 +6313,7 @@
       <c r="U46" s="27"/>
       <c r="V46" s="24"/>
       <c r="W46" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X46" s="27"/>
       <c r="Y46" s="27"/>
@@ -6230,13 +6331,13 @@
     </row>
     <row r="47" spans="1:36" ht="15" customHeight="1">
       <c r="A47" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
       <c r="E47" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F47" s="27"/>
       <c r="G47" s="26"/>
@@ -6244,7 +6345,7 @@
       <c r="I47" s="27"/>
       <c r="J47" s="24"/>
       <c r="K47" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
@@ -6252,7 +6353,7 @@
       <c r="O47" s="27"/>
       <c r="P47" s="27"/>
       <c r="Q47" s="25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R47" s="27"/>
       <c r="S47" s="27"/>
@@ -6260,7 +6361,7 @@
       <c r="U47" s="27"/>
       <c r="V47" s="24"/>
       <c r="W47" s="27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="X47" s="27"/>
       <c r="Y47" s="27"/>
@@ -6278,13 +6379,13 @@
     </row>
     <row r="48" spans="1:36" ht="15" customHeight="1">
       <c r="A48" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
       <c r="E48" s="25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F48" s="27"/>
       <c r="G48" s="26"/>
@@ -6292,7 +6393,7 @@
       <c r="I48" s="27"/>
       <c r="J48" s="24"/>
       <c r="K48" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L48" s="27"/>
       <c r="M48" s="27"/>
@@ -6308,7 +6409,7 @@
       <c r="U48" s="27"/>
       <c r="V48" s="24"/>
       <c r="W48" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="X48" s="27"/>
       <c r="Y48" s="27"/>
@@ -6326,13 +6427,13 @@
     </row>
     <row r="49" spans="1:36" ht="15" customHeight="1">
       <c r="A49" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="26"/>
@@ -6340,7 +6441,7 @@
       <c r="I49" s="27"/>
       <c r="J49" s="24"/>
       <c r="K49" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L49" s="27"/>
       <c r="M49" s="27"/>
@@ -6356,7 +6457,7 @@
       <c r="U49" s="27"/>
       <c r="V49" s="24"/>
       <c r="W49" s="27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="X49" s="27"/>
       <c r="Y49" s="27"/>
@@ -6374,13 +6475,13 @@
     </row>
     <row r="50" spans="1:36" ht="15" customHeight="1">
       <c r="A50" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="26"/>
@@ -6388,7 +6489,7 @@
       <c r="I50" s="27"/>
       <c r="J50" s="24"/>
       <c r="K50" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L50" s="27"/>
       <c r="M50" s="27"/>
@@ -6404,7 +6505,7 @@
       <c r="U50" s="27"/>
       <c r="V50" s="24"/>
       <c r="W50" s="27" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="X50" s="27"/>
       <c r="Y50" s="27"/>
@@ -6422,13 +6523,13 @@
     </row>
     <row r="51" spans="1:36" ht="15" customHeight="1">
       <c r="A51" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F51" s="27"/>
       <c r="G51" s="26"/>
@@ -6436,7 +6537,7 @@
       <c r="I51" s="27"/>
       <c r="J51" s="24"/>
       <c r="K51" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L51" s="27"/>
       <c r="M51" s="27"/>
@@ -6452,7 +6553,7 @@
       <c r="U51" s="27"/>
       <c r="V51" s="24"/>
       <c r="W51" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="X51" s="27"/>
       <c r="Y51" s="27"/>
@@ -6470,13 +6571,13 @@
     </row>
     <row r="52" spans="1:36" ht="15" customHeight="1">
       <c r="A52" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
       <c r="E52" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F52" s="27"/>
       <c r="G52" s="26"/>
@@ -6484,7 +6585,7 @@
       <c r="I52" s="27"/>
       <c r="J52" s="24"/>
       <c r="K52" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L52" s="27"/>
       <c r="M52" s="27"/>
@@ -6500,7 +6601,7 @@
       <c r="U52" s="27"/>
       <c r="V52" s="24"/>
       <c r="W52" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="X52" s="27"/>
       <c r="Y52" s="27"/>
@@ -6518,13 +6619,13 @@
     </row>
     <row r="53" spans="1:36" ht="15" customHeight="1">
       <c r="A53" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
       <c r="E53" s="25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="26"/>
@@ -6532,7 +6633,7 @@
       <c r="I53" s="27"/>
       <c r="J53" s="24"/>
       <c r="K53" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L53" s="27"/>
       <c r="M53" s="27"/>
@@ -6548,7 +6649,7 @@
       <c r="U53" s="27"/>
       <c r="V53" s="24"/>
       <c r="W53" s="27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="X53" s="27"/>
       <c r="Y53" s="27"/>
@@ -6566,13 +6667,13 @@
     </row>
     <row r="54" spans="1:36" ht="15" customHeight="1">
       <c r="A54" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B54" s="26"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
       <c r="E54" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="26"/>
@@ -6580,7 +6681,7 @@
       <c r="I54" s="27"/>
       <c r="J54" s="24"/>
       <c r="K54" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L54" s="27"/>
       <c r="M54" s="27"/>
@@ -6596,7 +6697,7 @@
       <c r="U54" s="27"/>
       <c r="V54" s="24"/>
       <c r="W54" s="27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="X54" s="27"/>
       <c r="Y54" s="27"/>
@@ -6614,13 +6715,13 @@
     </row>
     <row r="55" spans="1:36" ht="15" customHeight="1">
       <c r="A55" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B55" s="26"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
       <c r="E55" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="26"/>
@@ -6628,7 +6729,7 @@
       <c r="I55" s="27"/>
       <c r="J55" s="24"/>
       <c r="K55" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L55" s="27"/>
       <c r="M55" s="27"/>
@@ -6644,7 +6745,7 @@
       <c r="U55" s="27"/>
       <c r="V55" s="24"/>
       <c r="W55" s="27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="X55" s="27"/>
       <c r="Y55" s="27"/>
@@ -6662,13 +6763,13 @@
     </row>
     <row r="56" spans="1:36" ht="15" customHeight="1">
       <c r="A56" s="25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B56" s="26"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
       <c r="E56" s="25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="26"/>
@@ -6676,7 +6777,7 @@
       <c r="I56" s="27"/>
       <c r="J56" s="24"/>
       <c r="K56" s="27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L56" s="27"/>
       <c r="M56" s="27"/>
@@ -6684,7 +6785,7 @@
       <c r="O56" s="27"/>
       <c r="P56" s="27"/>
       <c r="Q56" s="29" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="R56" s="27"/>
       <c r="S56" s="27"/>
@@ -6692,7 +6793,7 @@
       <c r="U56" s="27"/>
       <c r="V56" s="24"/>
       <c r="W56" s="27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="X56" s="27"/>
       <c r="Y56" s="27"/>
@@ -6710,13 +6811,13 @@
     </row>
     <row r="57" spans="1:36" ht="15" customHeight="1">
       <c r="A57" s="25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
       <c r="E57" s="25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F57" s="27"/>
       <c r="G57" s="26"/>
@@ -6724,7 +6825,7 @@
       <c r="I57" s="27"/>
       <c r="J57" s="24"/>
       <c r="K57" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L57" s="27"/>
       <c r="M57" s="27"/>
@@ -6740,7 +6841,7 @@
       <c r="U57" s="27"/>
       <c r="V57" s="24"/>
       <c r="W57" s="27" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="X57" s="27"/>
       <c r="Y57" s="27"/>
@@ -6758,13 +6859,13 @@
     </row>
     <row r="58" spans="1:36" ht="15" customHeight="1">
       <c r="A58" s="25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B58" s="26"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
       <c r="E58" s="25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F58" s="27"/>
       <c r="G58" s="26"/>
@@ -6772,7 +6873,7 @@
       <c r="I58" s="27"/>
       <c r="J58" s="24"/>
       <c r="K58" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L58" s="27"/>
       <c r="M58" s="27"/>
@@ -6788,7 +6889,7 @@
       <c r="U58" s="27"/>
       <c r="V58" s="24"/>
       <c r="W58" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="X58" s="27"/>
       <c r="Y58" s="27"/>
@@ -6806,13 +6907,13 @@
     </row>
     <row r="59" spans="1:36" ht="15" customHeight="1">
       <c r="A59" s="25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B59" s="26"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="25" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F59" s="27"/>
       <c r="G59" s="26"/>
@@ -6820,7 +6921,7 @@
       <c r="I59" s="27"/>
       <c r="J59" s="24"/>
       <c r="K59" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L59" s="27"/>
       <c r="M59" s="27"/>
@@ -6836,7 +6937,7 @@
       <c r="U59" s="27"/>
       <c r="V59" s="24"/>
       <c r="W59" s="27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="X59" s="27"/>
       <c r="Y59" s="27"/>
@@ -6854,13 +6955,13 @@
     </row>
     <row r="60" spans="1:36" ht="15" customHeight="1">
       <c r="A60" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
       <c r="E60" s="25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F60" s="27"/>
       <c r="G60" s="26"/>
@@ -6868,7 +6969,7 @@
       <c r="I60" s="27"/>
       <c r="J60" s="24"/>
       <c r="K60" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L60" s="27"/>
       <c r="M60" s="27"/>
@@ -6876,7 +6977,7 @@
       <c r="O60" s="27"/>
       <c r="P60" s="27"/>
       <c r="Q60" s="25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="R60" s="27"/>
       <c r="S60" s="27"/>
@@ -6884,7 +6985,7 @@
       <c r="U60" s="27"/>
       <c r="V60" s="24"/>
       <c r="W60" s="27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="X60" s="27"/>
       <c r="Y60" s="27"/>
@@ -6902,13 +7003,13 @@
     </row>
     <row r="61" spans="1:36" ht="15" customHeight="1">
       <c r="A61" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B61" s="26"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
       <c r="E61" s="25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="26"/>
@@ -6916,7 +7017,7 @@
       <c r="I61" s="27"/>
       <c r="J61" s="24"/>
       <c r="K61" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L61" s="27"/>
       <c r="M61" s="27"/>
@@ -6924,7 +7025,7 @@
       <c r="O61" s="27"/>
       <c r="P61" s="27"/>
       <c r="Q61" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="R61" s="27"/>
       <c r="S61" s="27"/>
@@ -6932,7 +7033,7 @@
       <c r="U61" s="27"/>
       <c r="V61" s="24"/>
       <c r="W61" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="X61" s="27"/>
       <c r="Y61" s="27"/>
@@ -6950,13 +7051,13 @@
     </row>
     <row r="62" spans="1:36" ht="15" customHeight="1">
       <c r="A62" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
       <c r="E62" s="25" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F62" s="27"/>
       <c r="G62" s="26"/>
@@ -6964,7 +7065,7 @@
       <c r="I62" s="27"/>
       <c r="J62" s="24"/>
       <c r="K62" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L62" s="27"/>
       <c r="M62" s="27"/>
@@ -6972,7 +7073,7 @@
       <c r="O62" s="27"/>
       <c r="P62" s="27"/>
       <c r="Q62" s="25" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="R62" s="27"/>
       <c r="S62" s="27"/>
@@ -6980,7 +7081,7 @@
       <c r="U62" s="27"/>
       <c r="V62" s="24"/>
       <c r="W62" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="X62" s="27"/>
       <c r="Y62" s="27"/>
@@ -6998,13 +7099,13 @@
     </row>
     <row r="63" spans="1:36" ht="15" customHeight="1">
       <c r="A63" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
       <c r="E63" s="25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F63" s="27"/>
       <c r="G63" s="26"/>
@@ -7012,7 +7113,7 @@
       <c r="I63" s="27"/>
       <c r="J63" s="24"/>
       <c r="K63" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L63" s="27"/>
       <c r="M63" s="27"/>
@@ -7020,7 +7121,7 @@
       <c r="O63" s="27"/>
       <c r="P63" s="27"/>
       <c r="Q63" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="R63" s="27"/>
       <c r="S63" s="27"/>
@@ -7028,7 +7129,7 @@
       <c r="U63" s="27"/>
       <c r="V63" s="24"/>
       <c r="W63" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="X63" s="27"/>
       <c r="Y63" s="27"/>
@@ -7046,13 +7147,13 @@
     </row>
     <row r="64" spans="1:36" ht="15" customHeight="1">
       <c r="A64" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B64" s="26"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F64" s="27"/>
       <c r="G64" s="26"/>
@@ -7060,7 +7161,7 @@
       <c r="I64" s="27"/>
       <c r="J64" s="24"/>
       <c r="K64" s="27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L64" s="27"/>
       <c r="M64" s="27"/>
@@ -7068,7 +7169,7 @@
       <c r="O64" s="27"/>
       <c r="P64" s="27"/>
       <c r="Q64" s="25" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="R64" s="27"/>
       <c r="S64" s="27"/>
@@ -7076,7 +7177,7 @@
       <c r="U64" s="27"/>
       <c r="V64" s="24"/>
       <c r="W64" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="X64" s="27"/>
       <c r="Y64" s="27"/>
@@ -7094,13 +7195,13 @@
     </row>
     <row r="65" spans="1:36" ht="15" customHeight="1">
       <c r="A65" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="E65" s="25" t="s">
-        <v>279</v>
+        <v>421</v>
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="26"/>
@@ -7108,7 +7209,7 @@
       <c r="I65" s="27"/>
       <c r="J65" s="24"/>
       <c r="K65" s="27" t="s">
-        <v>96</v>
+        <v>427</v>
       </c>
       <c r="L65" s="27"/>
       <c r="M65" s="27"/>
@@ -7124,7 +7225,7 @@
       <c r="U65" s="27"/>
       <c r="V65" s="24"/>
       <c r="W65" s="27" t="s">
-        <v>263</v>
+        <v>433</v>
       </c>
       <c r="X65" s="27"/>
       <c r="Y65" s="27"/>
@@ -7142,13 +7243,13 @@
     </row>
     <row r="66" spans="1:36" ht="15" customHeight="1">
       <c r="A66" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
       <c r="E66" s="25" t="s">
-        <v>280</v>
+        <v>422</v>
       </c>
       <c r="F66" s="27"/>
       <c r="G66" s="26"/>
@@ -7156,7 +7257,7 @@
       <c r="I66" s="27"/>
       <c r="J66" s="24"/>
       <c r="K66" s="27" t="s">
-        <v>97</v>
+        <v>428</v>
       </c>
       <c r="L66" s="27"/>
       <c r="M66" s="27"/>
@@ -7164,7 +7265,7 @@
       <c r="O66" s="27"/>
       <c r="P66" s="27"/>
       <c r="Q66" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" s="27"/>
       <c r="S66" s="27"/>
@@ -7172,7 +7273,7 @@
       <c r="U66" s="27"/>
       <c r="V66" s="24"/>
       <c r="W66" s="27" t="s">
-        <v>264</v>
+        <v>434</v>
       </c>
       <c r="X66" s="27"/>
       <c r="Y66" s="27"/>
@@ -7190,13 +7291,13 @@
     </row>
     <row r="67" spans="1:36" ht="15" customHeight="1">
       <c r="A67" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="25" t="s">
-        <v>281</v>
+        <v>423</v>
       </c>
       <c r="F67" s="27"/>
       <c r="G67" s="26"/>
@@ -7204,15 +7305,15 @@
       <c r="I67" s="27"/>
       <c r="J67" s="24"/>
       <c r="K67" s="27" t="s">
-        <v>98</v>
+        <v>429</v>
       </c>
       <c r="L67" s="27"/>
       <c r="M67" s="27"/>
       <c r="N67" s="27"/>
       <c r="O67" s="27"/>
       <c r="P67" s="27"/>
-      <c r="Q67" s="29" t="s">
-        <v>227</v>
+      <c r="Q67" s="25">
+        <v>2</v>
       </c>
       <c r="R67" s="27"/>
       <c r="S67" s="27"/>
@@ -7220,7 +7321,7 @@
       <c r="U67" s="27"/>
       <c r="V67" s="24"/>
       <c r="W67" s="27" t="s">
-        <v>265</v>
+        <v>435</v>
       </c>
       <c r="X67" s="27"/>
       <c r="Y67" s="27"/>
@@ -7238,13 +7339,13 @@
     </row>
     <row r="68" spans="1:36" ht="15" customHeight="1">
       <c r="A68" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
       <c r="E68" s="25" t="s">
-        <v>282</v>
+        <v>424</v>
       </c>
       <c r="F68" s="27"/>
       <c r="G68" s="26"/>
@@ -7252,7 +7353,7 @@
       <c r="I68" s="27"/>
       <c r="J68" s="24"/>
       <c r="K68" s="27" t="s">
-        <v>99</v>
+        <v>430</v>
       </c>
       <c r="L68" s="27"/>
       <c r="M68" s="27"/>
@@ -7260,7 +7361,7 @@
       <c r="O68" s="27"/>
       <c r="P68" s="27"/>
       <c r="Q68" s="25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R68" s="27"/>
       <c r="S68" s="27"/>
@@ -7268,7 +7369,7 @@
       <c r="U68" s="27"/>
       <c r="V68" s="24"/>
       <c r="W68" s="27" t="s">
-        <v>266</v>
+        <v>436</v>
       </c>
       <c r="X68" s="27"/>
       <c r="Y68" s="27"/>
@@ -7286,13 +7387,13 @@
     </row>
     <row r="69" spans="1:36" ht="15" customHeight="1">
       <c r="A69" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="25" t="s">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="F69" s="27"/>
       <c r="G69" s="26"/>
@@ -7300,15 +7401,15 @@
       <c r="I69" s="27"/>
       <c r="J69" s="24"/>
       <c r="K69" s="27" t="s">
-        <v>100</v>
+        <v>431</v>
       </c>
       <c r="L69" s="27"/>
       <c r="M69" s="27"/>
       <c r="N69" s="27"/>
       <c r="O69" s="27"/>
       <c r="P69" s="27"/>
-      <c r="Q69" s="25" t="s">
-        <v>295</v>
+      <c r="Q69" s="25">
+        <v>4</v>
       </c>
       <c r="R69" s="27"/>
       <c r="S69" s="27"/>
@@ -7316,7 +7417,7 @@
       <c r="U69" s="27"/>
       <c r="V69" s="24"/>
       <c r="W69" s="27" t="s">
-        <v>267</v>
+        <v>437</v>
       </c>
       <c r="X69" s="27"/>
       <c r="Y69" s="27"/>
@@ -7334,13 +7435,13 @@
     </row>
     <row r="70" spans="1:36" ht="15" customHeight="1">
       <c r="A70" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="25" t="s">
-        <v>284</v>
+        <v>426</v>
       </c>
       <c r="F70" s="27"/>
       <c r="G70" s="26"/>
@@ -7348,15 +7449,15 @@
       <c r="I70" s="27"/>
       <c r="J70" s="24"/>
       <c r="K70" s="27" t="s">
-        <v>101</v>
+        <v>432</v>
       </c>
       <c r="L70" s="27"/>
       <c r="M70" s="27"/>
       <c r="N70" s="27"/>
       <c r="O70" s="27"/>
       <c r="P70" s="27"/>
-      <c r="Q70" s="25" t="s">
-        <v>296</v>
+      <c r="Q70" s="25">
+        <v>5</v>
       </c>
       <c r="R70" s="27"/>
       <c r="S70" s="27"/>
@@ -7364,7 +7465,7 @@
       <c r="U70" s="27"/>
       <c r="V70" s="24"/>
       <c r="W70" s="27" t="s">
-        <v>268</v>
+        <v>438</v>
       </c>
       <c r="X70" s="27"/>
       <c r="Y70" s="27"/>
@@ -7382,13 +7483,13 @@
     </row>
     <row r="71" spans="1:36" ht="15" customHeight="1">
       <c r="A71" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B71" s="26"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
       <c r="E71" s="25" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F71" s="27"/>
       <c r="G71" s="26"/>
@@ -7396,15 +7497,15 @@
       <c r="I71" s="27"/>
       <c r="J71" s="24"/>
       <c r="K71" s="27" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L71" s="27"/>
       <c r="M71" s="27"/>
       <c r="N71" s="27"/>
       <c r="O71" s="27"/>
       <c r="P71" s="27"/>
-      <c r="Q71" s="25" t="s">
-        <v>296</v>
+      <c r="Q71" s="25">
+        <v>0</v>
       </c>
       <c r="R71" s="27"/>
       <c r="S71" s="27"/>
@@ -7412,7 +7513,7 @@
       <c r="U71" s="27"/>
       <c r="V71" s="24"/>
       <c r="W71" s="27" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="X71" s="27"/>
       <c r="Y71" s="27"/>
@@ -7430,13 +7531,13 @@
     </row>
     <row r="72" spans="1:36" ht="15" customHeight="1">
       <c r="A72" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
       <c r="E72" s="25" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F72" s="27"/>
       <c r="G72" s="26"/>
@@ -7444,15 +7545,15 @@
       <c r="I72" s="27"/>
       <c r="J72" s="24"/>
       <c r="K72" s="27" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L72" s="27"/>
       <c r="M72" s="27"/>
       <c r="N72" s="27"/>
       <c r="O72" s="27"/>
       <c r="P72" s="27"/>
-      <c r="Q72" s="25" t="s">
-        <v>296</v>
+      <c r="Q72" s="25">
+        <v>0</v>
       </c>
       <c r="R72" s="27"/>
       <c r="S72" s="27"/>
@@ -7460,7 +7561,7 @@
       <c r="U72" s="27"/>
       <c r="V72" s="24"/>
       <c r="W72" s="27" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="X72" s="27"/>
       <c r="Y72" s="27"/>
@@ -7478,13 +7579,13 @@
     </row>
     <row r="73" spans="1:36" ht="15" customHeight="1">
       <c r="A73" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
       <c r="E73" s="25" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F73" s="27"/>
       <c r="G73" s="26"/>
@@ -7492,15 +7593,15 @@
       <c r="I73" s="27"/>
       <c r="J73" s="24"/>
       <c r="K73" s="27" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L73" s="27"/>
       <c r="M73" s="27"/>
       <c r="N73" s="27"/>
       <c r="O73" s="27"/>
       <c r="P73" s="27"/>
-      <c r="Q73" s="25" t="s">
-        <v>296</v>
+      <c r="Q73" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="R73" s="27"/>
       <c r="S73" s="27"/>
@@ -7508,7 +7609,7 @@
       <c r="U73" s="27"/>
       <c r="V73" s="24"/>
       <c r="W73" s="27" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="X73" s="27"/>
       <c r="Y73" s="27"/>
@@ -7526,13 +7627,13 @@
     </row>
     <row r="74" spans="1:36" ht="15" customHeight="1">
       <c r="A74" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B74" s="26"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
       <c r="E74" s="25" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F74" s="27"/>
       <c r="G74" s="26"/>
@@ -7540,15 +7641,15 @@
       <c r="I74" s="27"/>
       <c r="J74" s="24"/>
       <c r="K74" s="27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L74" s="27"/>
       <c r="M74" s="27"/>
       <c r="N74" s="27"/>
       <c r="O74" s="27"/>
       <c r="P74" s="27"/>
-      <c r="Q74" s="25" t="s">
-        <v>296</v>
+      <c r="Q74" s="25">
+        <v>0</v>
       </c>
       <c r="R74" s="27"/>
       <c r="S74" s="27"/>
@@ -7556,7 +7657,7 @@
       <c r="U74" s="27"/>
       <c r="V74" s="24"/>
       <c r="W74" s="27" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="X74" s="27"/>
       <c r="Y74" s="27"/>
@@ -7574,13 +7675,13 @@
     </row>
     <row r="75" spans="1:36" ht="15" customHeight="1">
       <c r="A75" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B75" s="26"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
       <c r="E75" s="25" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F75" s="27"/>
       <c r="G75" s="26"/>
@@ -7588,15 +7689,15 @@
       <c r="I75" s="27"/>
       <c r="J75" s="24"/>
       <c r="K75" s="27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="L75" s="27"/>
       <c r="M75" s="27"/>
       <c r="N75" s="27"/>
       <c r="O75" s="27"/>
       <c r="P75" s="27"/>
-      <c r="Q75" s="25">
-        <v>3</v>
+      <c r="Q75" s="25" t="s">
+        <v>290</v>
       </c>
       <c r="R75" s="27"/>
       <c r="S75" s="27"/>
@@ -7604,7 +7705,7 @@
       <c r="U75" s="27"/>
       <c r="V75" s="24"/>
       <c r="W75" s="27" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="X75" s="27"/>
       <c r="Y75" s="27"/>
@@ -7622,13 +7723,13 @@
     </row>
     <row r="76" spans="1:36" ht="15" customHeight="1">
       <c r="A76" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
       <c r="E76" s="25" t="s">
-        <v>293</v>
+        <v>420</v>
       </c>
       <c r="F76" s="27"/>
       <c r="G76" s="26"/>
@@ -7636,15 +7737,15 @@
       <c r="I76" s="27"/>
       <c r="J76" s="24"/>
       <c r="K76" s="27" t="s">
-        <v>107</v>
+        <v>418</v>
       </c>
       <c r="L76" s="27"/>
       <c r="M76" s="27"/>
       <c r="N76" s="27"/>
       <c r="O76" s="27"/>
       <c r="P76" s="27"/>
-      <c r="Q76" s="25">
-        <v>4</v>
+      <c r="Q76" s="25" t="s">
+        <v>291</v>
       </c>
       <c r="R76" s="27"/>
       <c r="S76" s="27"/>
@@ -7652,7 +7753,7 @@
       <c r="U76" s="27"/>
       <c r="V76" s="24"/>
       <c r="W76" s="27" t="s">
-        <v>291</v>
+        <v>419</v>
       </c>
       <c r="X76" s="27"/>
       <c r="Y76" s="27"/>
@@ -7670,13 +7771,13 @@
     </row>
     <row r="77" spans="1:36" ht="15" customHeight="1">
       <c r="A77" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B77" s="26"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
       <c r="E77" s="25" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="26"/>
@@ -7684,15 +7785,15 @@
       <c r="I77" s="27"/>
       <c r="J77" s="24"/>
       <c r="K77" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L77" s="27"/>
       <c r="M77" s="27"/>
       <c r="N77" s="27"/>
       <c r="O77" s="27"/>
       <c r="P77" s="27"/>
-      <c r="Q77" s="25">
-        <v>6</v>
+      <c r="Q77" s="25" t="s">
+        <v>291</v>
       </c>
       <c r="R77" s="27"/>
       <c r="S77" s="27"/>
@@ -7700,7 +7801,7 @@
       <c r="U77" s="27"/>
       <c r="V77" s="24"/>
       <c r="W77" s="27" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="X77" s="27"/>
       <c r="Y77" s="27"/>
@@ -7718,13 +7819,13 @@
     </row>
     <row r="78" spans="1:36" ht="15" customHeight="1">
       <c r="A78" s="25" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
       <c r="E78" s="25" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F78" s="27"/>
       <c r="G78" s="26"/>
@@ -7732,7 +7833,7 @@
       <c r="I78" s="27"/>
       <c r="J78" s="24"/>
       <c r="K78" s="27" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="L78" s="27"/>
       <c r="M78" s="27"/>
@@ -7740,7 +7841,7 @@
       <c r="O78" s="27"/>
       <c r="P78" s="27"/>
       <c r="Q78" s="25" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="R78" s="27"/>
       <c r="S78" s="27"/>
@@ -7748,7 +7849,7 @@
       <c r="U78" s="27"/>
       <c r="V78" s="24"/>
       <c r="W78" s="27" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="X78" s="27"/>
       <c r="Y78" s="27"/>
@@ -7766,13 +7867,13 @@
     </row>
     <row r="79" spans="1:36" ht="15" customHeight="1">
       <c r="A79" s="25" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B79" s="26"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
       <c r="E79" s="25" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F79" s="27"/>
       <c r="G79" s="26"/>
@@ -7780,7 +7881,7 @@
       <c r="I79" s="27"/>
       <c r="J79" s="24"/>
       <c r="K79" s="27" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="L79" s="27"/>
       <c r="M79" s="27"/>
@@ -7788,7 +7889,7 @@
       <c r="O79" s="27"/>
       <c r="P79" s="27"/>
       <c r="Q79" s="25" t="s">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="R79" s="27"/>
       <c r="S79" s="27"/>
@@ -7796,7 +7897,7 @@
       <c r="U79" s="27"/>
       <c r="V79" s="24"/>
       <c r="W79" s="27" t="s">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="X79" s="27"/>
       <c r="Y79" s="27"/>
@@ -7814,13 +7915,13 @@
     </row>
     <row r="80" spans="1:36" ht="15" customHeight="1">
       <c r="A80" s="25" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="B80" s="26"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
       <c r="E80" s="25" t="s">
-        <v>358</v>
+        <v>285</v>
       </c>
       <c r="F80" s="27"/>
       <c r="G80" s="26"/>
@@ -7828,7 +7929,7 @@
       <c r="I80" s="27"/>
       <c r="J80" s="24"/>
       <c r="K80" s="27" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="L80" s="27"/>
       <c r="M80" s="27"/>
@@ -7836,15 +7937,15 @@
       <c r="O80" s="27"/>
       <c r="P80" s="27"/>
       <c r="Q80" s="25" t="s">
-        <v>383</v>
+        <v>291</v>
       </c>
       <c r="R80" s="27"/>
       <c r="S80" s="27"/>
       <c r="T80" s="27"/>
       <c r="U80" s="27"/>
       <c r="V80" s="24"/>
-      <c r="W80" s="25" t="s">
-        <v>358</v>
+      <c r="W80" s="27" t="s">
+        <v>265</v>
       </c>
       <c r="X80" s="27"/>
       <c r="Y80" s="27"/>
@@ -7862,13 +7963,13 @@
     </row>
     <row r="81" spans="1:36" ht="15" customHeight="1">
       <c r="A81" s="25" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
       <c r="E81" s="25" t="s">
-        <v>359</v>
+        <v>287</v>
       </c>
       <c r="F81" s="27"/>
       <c r="G81" s="26"/>
@@ -7876,23 +7977,23 @@
       <c r="I81" s="27"/>
       <c r="J81" s="24"/>
       <c r="K81" s="27" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="L81" s="27"/>
       <c r="M81" s="27"/>
       <c r="N81" s="27"/>
       <c r="O81" s="27"/>
       <c r="P81" s="27"/>
-      <c r="Q81" s="25" t="s">
-        <v>384</v>
+      <c r="Q81" s="25">
+        <v>3</v>
       </c>
       <c r="R81" s="27"/>
       <c r="S81" s="27"/>
       <c r="T81" s="27"/>
       <c r="U81" s="27"/>
       <c r="V81" s="24"/>
-      <c r="W81" s="25" t="s">
-        <v>359</v>
+      <c r="W81" s="27" t="s">
+        <v>286</v>
       </c>
       <c r="X81" s="27"/>
       <c r="Y81" s="27"/>
@@ -7910,13 +8011,13 @@
     </row>
     <row r="82" spans="1:36" ht="15" customHeight="1">
       <c r="A82" s="25" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="B82" s="26"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
       <c r="E82" s="25" t="s">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="F82" s="27"/>
       <c r="G82" s="26"/>
@@ -7924,23 +8025,23 @@
       <c r="I82" s="27"/>
       <c r="J82" s="24"/>
       <c r="K82" s="27" t="s">
-        <v>299</v>
+        <v>104</v>
       </c>
       <c r="L82" s="27"/>
       <c r="M82" s="27"/>
       <c r="N82" s="27"/>
       <c r="O82" s="27"/>
       <c r="P82" s="27"/>
-      <c r="Q82" s="25" t="s">
-        <v>385</v>
+      <c r="Q82" s="25">
+        <v>4</v>
       </c>
       <c r="R82" s="27"/>
       <c r="S82" s="27"/>
       <c r="T82" s="27"/>
       <c r="U82" s="27"/>
       <c r="V82" s="24"/>
-      <c r="W82" s="25" t="s">
-        <v>360</v>
+      <c r="W82" s="27" t="s">
+        <v>286</v>
       </c>
       <c r="X82" s="27"/>
       <c r="Y82" s="27"/>
@@ -7958,13 +8059,13 @@
     </row>
     <row r="83" spans="1:36" ht="15" customHeight="1">
       <c r="A83" s="25" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="B83" s="26"/>
       <c r="C83" s="27"/>
       <c r="D83" s="27"/>
       <c r="E83" s="25" t="s">
-        <v>361</v>
+        <v>289</v>
       </c>
       <c r="F83" s="27"/>
       <c r="G83" s="26"/>
@@ -7972,23 +8073,23 @@
       <c r="I83" s="27"/>
       <c r="J83" s="24"/>
       <c r="K83" s="27" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="L83" s="27"/>
       <c r="M83" s="27"/>
       <c r="N83" s="27"/>
       <c r="O83" s="27"/>
       <c r="P83" s="27"/>
-      <c r="Q83" s="25" t="s">
-        <v>386</v>
+      <c r="Q83" s="25">
+        <v>6</v>
       </c>
       <c r="R83" s="27"/>
       <c r="S83" s="27"/>
       <c r="T83" s="27"/>
       <c r="U83" s="27"/>
       <c r="V83" s="24"/>
-      <c r="W83" s="25" t="s">
-        <v>361</v>
+      <c r="W83" s="27" t="s">
+        <v>286</v>
       </c>
       <c r="X83" s="27"/>
       <c r="Y83" s="27"/>
@@ -8006,13 +8107,13 @@
     </row>
     <row r="84" spans="1:36" ht="15" customHeight="1">
       <c r="A84" s="25" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="27"/>
       <c r="D84" s="27"/>
       <c r="E84" s="25" t="s">
-        <v>362</v>
+        <v>271</v>
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="26"/>
@@ -8020,7 +8121,7 @@
       <c r="I84" s="27"/>
       <c r="J84" s="24"/>
       <c r="K84" s="27" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L84" s="27"/>
       <c r="M84" s="27"/>
@@ -8028,15 +8129,15 @@
       <c r="O84" s="27"/>
       <c r="P84" s="27"/>
       <c r="Q84" s="25" t="s">
-        <v>387</v>
+        <v>269</v>
       </c>
       <c r="R84" s="27"/>
       <c r="S84" s="27"/>
       <c r="T84" s="27"/>
       <c r="U84" s="27"/>
       <c r="V84" s="24"/>
-      <c r="W84" s="25" t="s">
-        <v>362</v>
+      <c r="W84" s="27" t="s">
+        <v>274</v>
       </c>
       <c r="X84" s="27"/>
       <c r="Y84" s="27"/>
@@ -8054,13 +8155,13 @@
     </row>
     <row r="85" spans="1:36" ht="15" customHeight="1">
       <c r="A85" s="25" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="B85" s="26"/>
       <c r="C85" s="27"/>
       <c r="D85" s="27"/>
       <c r="E85" s="25" t="s">
-        <v>363</v>
+        <v>272</v>
       </c>
       <c r="F85" s="27"/>
       <c r="G85" s="26"/>
@@ -8068,7 +8169,7 @@
       <c r="I85" s="27"/>
       <c r="J85" s="24"/>
       <c r="K85" s="27" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L85" s="27"/>
       <c r="M85" s="27"/>
@@ -8076,15 +8177,15 @@
       <c r="O85" s="27"/>
       <c r="P85" s="27"/>
       <c r="Q85" s="25" t="s">
-        <v>388</v>
+        <v>156</v>
       </c>
       <c r="R85" s="27"/>
       <c r="S85" s="27"/>
       <c r="T85" s="27"/>
       <c r="U85" s="27"/>
       <c r="V85" s="24"/>
-      <c r="W85" s="25" t="s">
-        <v>363</v>
+      <c r="W85" s="27" t="s">
+        <v>273</v>
       </c>
       <c r="X85" s="27"/>
       <c r="Y85" s="27"/>
@@ -8102,13 +8203,13 @@
     </row>
     <row r="86" spans="1:36" ht="15" customHeight="1">
       <c r="A86" s="25" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B86" s="26"/>
       <c r="C86" s="27"/>
       <c r="D86" s="27"/>
       <c r="E86" s="25" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F86" s="27"/>
       <c r="G86" s="26"/>
@@ -8116,7 +8217,7 @@
       <c r="I86" s="27"/>
       <c r="J86" s="24"/>
       <c r="K86" s="27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L86" s="27"/>
       <c r="M86" s="27"/>
@@ -8124,7 +8225,7 @@
       <c r="O86" s="27"/>
       <c r="P86" s="27"/>
       <c r="Q86" s="25" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="R86" s="27"/>
       <c r="S86" s="27"/>
@@ -8132,7 +8233,7 @@
       <c r="U86" s="27"/>
       <c r="V86" s="24"/>
       <c r="W86" s="25" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="X86" s="27"/>
       <c r="Y86" s="27"/>
@@ -8150,13 +8251,13 @@
     </row>
     <row r="87" spans="1:36" ht="15" customHeight="1">
       <c r="A87" s="25" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="27"/>
       <c r="D87" s="27"/>
       <c r="E87" s="25" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F87" s="27"/>
       <c r="G87" s="26"/>
@@ -8164,7 +8265,7 @@
       <c r="I87" s="27"/>
       <c r="J87" s="24"/>
       <c r="K87" s="27" t="s">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="L87" s="27"/>
       <c r="M87" s="27"/>
@@ -8172,7 +8273,7 @@
       <c r="O87" s="27"/>
       <c r="P87" s="27"/>
       <c r="Q87" s="25" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="R87" s="27"/>
       <c r="S87" s="27"/>
@@ -8180,7 +8281,7 @@
       <c r="U87" s="27"/>
       <c r="V87" s="24"/>
       <c r="W87" s="25" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="X87" s="27"/>
       <c r="Y87" s="27"/>
@@ -8198,13 +8299,13 @@
     </row>
     <row r="88" spans="1:36" ht="15" customHeight="1">
       <c r="A88" s="25" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
       <c r="E88" s="25" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F88" s="27"/>
       <c r="G88" s="26"/>
@@ -8212,7 +8313,7 @@
       <c r="I88" s="27"/>
       <c r="J88" s="24"/>
       <c r="K88" s="27" t="s">
-        <v>128</v>
+        <v>294</v>
       </c>
       <c r="L88" s="27"/>
       <c r="M88" s="27"/>
@@ -8220,7 +8321,7 @@
       <c r="O88" s="27"/>
       <c r="P88" s="27"/>
       <c r="Q88" s="25" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="R88" s="27"/>
       <c r="S88" s="27"/>
@@ -8228,7 +8329,7 @@
       <c r="U88" s="27"/>
       <c r="V88" s="24"/>
       <c r="W88" s="25" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="X88" s="27"/>
       <c r="Y88" s="27"/>
@@ -8246,13 +8347,13 @@
     </row>
     <row r="89" spans="1:36" ht="15" customHeight="1">
       <c r="A89" s="25" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="27"/>
       <c r="D89" s="27"/>
       <c r="E89" s="25" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F89" s="27"/>
       <c r="G89" s="26"/>
@@ -8260,7 +8361,7 @@
       <c r="I89" s="27"/>
       <c r="J89" s="24"/>
       <c r="K89" s="27" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L89" s="27"/>
       <c r="M89" s="27"/>
@@ -8268,7 +8369,7 @@
       <c r="O89" s="27"/>
       <c r="P89" s="27"/>
       <c r="Q89" s="25" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="R89" s="27"/>
       <c r="S89" s="27"/>
@@ -8276,7 +8377,7 @@
       <c r="U89" s="27"/>
       <c r="V89" s="24"/>
       <c r="W89" s="25" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="X89" s="27"/>
       <c r="Y89" s="27"/>
@@ -8294,13 +8395,13 @@
     </row>
     <row r="90" spans="1:36" ht="15" customHeight="1">
       <c r="A90" s="25" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B90" s="26"/>
       <c r="C90" s="27"/>
       <c r="D90" s="27"/>
       <c r="E90" s="25" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F90" s="27"/>
       <c r="G90" s="26"/>
@@ -8308,7 +8409,7 @@
       <c r="I90" s="27"/>
       <c r="J90" s="24"/>
       <c r="K90" s="27" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L90" s="27"/>
       <c r="M90" s="27"/>
@@ -8316,7 +8417,7 @@
       <c r="O90" s="27"/>
       <c r="P90" s="27"/>
       <c r="Q90" s="25" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="R90" s="27"/>
       <c r="S90" s="27"/>
@@ -8324,7 +8425,7 @@
       <c r="U90" s="27"/>
       <c r="V90" s="24"/>
       <c r="W90" s="25" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="X90" s="27"/>
       <c r="Y90" s="27"/>
@@ -8342,13 +8443,13 @@
     </row>
     <row r="91" spans="1:36" ht="15" customHeight="1">
       <c r="A91" s="25" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
       <c r="E91" s="25" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="F91" s="27"/>
       <c r="G91" s="26"/>
@@ -8356,7 +8457,7 @@
       <c r="I91" s="27"/>
       <c r="J91" s="24"/>
       <c r="K91" s="27" t="s">
-        <v>301</v>
+        <v>123</v>
       </c>
       <c r="L91" s="27"/>
       <c r="M91" s="27"/>
@@ -8364,7 +8465,7 @@
       <c r="O91" s="27"/>
       <c r="P91" s="27"/>
       <c r="Q91" s="25" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="R91" s="27"/>
       <c r="S91" s="27"/>
@@ -8372,7 +8473,7 @@
       <c r="U91" s="27"/>
       <c r="V91" s="24"/>
       <c r="W91" s="25" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X91" s="27"/>
       <c r="Y91" s="27"/>
@@ -8390,13 +8491,13 @@
     </row>
     <row r="92" spans="1:36" ht="15" customHeight="1">
       <c r="A92" s="25" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B92" s="26"/>
       <c r="C92" s="27"/>
       <c r="D92" s="27"/>
       <c r="E92" s="25" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F92" s="27"/>
       <c r="G92" s="26"/>
@@ -8404,7 +8505,7 @@
       <c r="I92" s="27"/>
       <c r="J92" s="24"/>
       <c r="K92" s="27" t="s">
-        <v>302</v>
+        <v>124</v>
       </c>
       <c r="L92" s="27"/>
       <c r="M92" s="27"/>
@@ -8412,7 +8513,7 @@
       <c r="O92" s="27"/>
       <c r="P92" s="27"/>
       <c r="Q92" s="25" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="R92" s="27"/>
       <c r="S92" s="27"/>
@@ -8420,7 +8521,7 @@
       <c r="U92" s="27"/>
       <c r="V92" s="24"/>
       <c r="W92" s="25" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="X92" s="27"/>
       <c r="Y92" s="27"/>
@@ -8438,13 +8539,13 @@
     </row>
     <row r="93" spans="1:36" ht="15" customHeight="1">
       <c r="A93" s="25" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
       <c r="E93" s="25" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F93" s="27"/>
       <c r="G93" s="26"/>
@@ -8452,7 +8553,7 @@
       <c r="I93" s="27"/>
       <c r="J93" s="24"/>
       <c r="K93" s="27" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L93" s="27"/>
       <c r="M93" s="27"/>
@@ -8460,7 +8561,7 @@
       <c r="O93" s="27"/>
       <c r="P93" s="27"/>
       <c r="Q93" s="25" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="R93" s="27"/>
       <c r="S93" s="27"/>
@@ -8468,7 +8569,7 @@
       <c r="U93" s="27"/>
       <c r="V93" s="24"/>
       <c r="W93" s="25" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="X93" s="27"/>
       <c r="Y93" s="27"/>
@@ -8486,13 +8587,13 @@
     </row>
     <row r="94" spans="1:36" ht="15" customHeight="1">
       <c r="A94" s="25" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B94" s="26"/>
       <c r="C94" s="27"/>
       <c r="D94" s="27"/>
       <c r="E94" s="25" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F94" s="27"/>
       <c r="G94" s="26"/>
@@ -8500,7 +8601,7 @@
       <c r="I94" s="27"/>
       <c r="J94" s="24"/>
       <c r="K94" s="27" t="s">
-        <v>304</v>
+        <v>125</v>
       </c>
       <c r="L94" s="27"/>
       <c r="M94" s="27"/>
@@ -8508,7 +8609,7 @@
       <c r="O94" s="27"/>
       <c r="P94" s="27"/>
       <c r="Q94" s="25" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="R94" s="27"/>
       <c r="S94" s="27"/>
@@ -8516,7 +8617,7 @@
       <c r="U94" s="27"/>
       <c r="V94" s="24"/>
       <c r="W94" s="25" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="X94" s="27"/>
       <c r="Y94" s="27"/>
@@ -8534,13 +8635,13 @@
     </row>
     <row r="95" spans="1:36" ht="15" customHeight="1">
       <c r="A95" s="25" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B95" s="26"/>
       <c r="C95" s="27"/>
       <c r="D95" s="27"/>
       <c r="E95" s="25" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="26"/>
@@ -8548,7 +8649,7 @@
       <c r="I95" s="27"/>
       <c r="J95" s="24"/>
       <c r="K95" s="27" t="s">
-        <v>305</v>
+        <v>126</v>
       </c>
       <c r="L95" s="27"/>
       <c r="M95" s="27"/>
@@ -8556,7 +8657,7 @@
       <c r="O95" s="27"/>
       <c r="P95" s="27"/>
       <c r="Q95" s="25" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="R95" s="27"/>
       <c r="S95" s="27"/>
@@ -8564,7 +8665,7 @@
       <c r="U95" s="27"/>
       <c r="V95" s="24"/>
       <c r="W95" s="25" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="X95" s="27"/>
       <c r="Y95" s="27"/>
@@ -8582,13 +8683,13 @@
     </row>
     <row r="96" spans="1:36" ht="15" customHeight="1">
       <c r="A96" s="25" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B96" s="26"/>
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
       <c r="E96" s="25" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F96" s="27"/>
       <c r="G96" s="26"/>
@@ -8596,7 +8697,7 @@
       <c r="I96" s="27"/>
       <c r="J96" s="24"/>
       <c r="K96" s="27" t="s">
-        <v>306</v>
+        <v>127</v>
       </c>
       <c r="L96" s="27"/>
       <c r="M96" s="27"/>
@@ -8604,7 +8705,7 @@
       <c r="O96" s="27"/>
       <c r="P96" s="27"/>
       <c r="Q96" s="25" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="R96" s="27"/>
       <c r="S96" s="27"/>
@@ -8612,7 +8713,7 @@
       <c r="U96" s="27"/>
       <c r="V96" s="24"/>
       <c r="W96" s="25" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="X96" s="27"/>
       <c r="Y96" s="27"/>
@@ -8630,13 +8731,13 @@
     </row>
     <row r="97" spans="1:36" ht="15" customHeight="1">
       <c r="A97" s="25" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
       <c r="E97" s="25" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="26"/>
@@ -8644,7 +8745,7 @@
       <c r="I97" s="27"/>
       <c r="J97" s="24"/>
       <c r="K97" s="27" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="L97" s="27"/>
       <c r="M97" s="27"/>
@@ -8652,7 +8753,7 @@
       <c r="O97" s="27"/>
       <c r="P97" s="27"/>
       <c r="Q97" s="25" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="R97" s="27"/>
       <c r="S97" s="27"/>
@@ -8660,7 +8761,7 @@
       <c r="U97" s="27"/>
       <c r="V97" s="24"/>
       <c r="W97" s="25" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="X97" s="27"/>
       <c r="Y97" s="27"/>
@@ -8678,13 +8779,13 @@
     </row>
     <row r="98" spans="1:36" ht="15" customHeight="1">
       <c r="A98" s="25" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="27"/>
       <c r="D98" s="27"/>
       <c r="E98" s="25" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F98" s="27"/>
       <c r="G98" s="26"/>
@@ -8692,7 +8793,7 @@
       <c r="I98" s="27"/>
       <c r="J98" s="24"/>
       <c r="K98" s="27" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="L98" s="27"/>
       <c r="M98" s="27"/>
@@ -8700,7 +8801,7 @@
       <c r="O98" s="27"/>
       <c r="P98" s="27"/>
       <c r="Q98" s="25" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="R98" s="27"/>
       <c r="S98" s="27"/>
@@ -8708,7 +8809,7 @@
       <c r="U98" s="27"/>
       <c r="V98" s="24"/>
       <c r="W98" s="25" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="X98" s="27"/>
       <c r="Y98" s="27"/>
@@ -8726,13 +8827,13 @@
     </row>
     <row r="99" spans="1:36" ht="15" customHeight="1">
       <c r="A99" s="25" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="27"/>
       <c r="D99" s="27"/>
       <c r="E99" s="25" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F99" s="27"/>
       <c r="G99" s="26"/>
@@ -8740,7 +8841,7 @@
       <c r="I99" s="27"/>
       <c r="J99" s="24"/>
       <c r="K99" s="27" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="L99" s="27"/>
       <c r="M99" s="27"/>
@@ -8748,7 +8849,7 @@
       <c r="O99" s="27"/>
       <c r="P99" s="27"/>
       <c r="Q99" s="25" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="R99" s="27"/>
       <c r="S99" s="27"/>
@@ -8756,7 +8857,7 @@
       <c r="U99" s="27"/>
       <c r="V99" s="24"/>
       <c r="W99" s="25" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="X99" s="27"/>
       <c r="Y99" s="27"/>
@@ -8774,13 +8875,13 @@
     </row>
     <row r="100" spans="1:36" ht="15" customHeight="1">
       <c r="A100" s="25" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="27"/>
       <c r="D100" s="27"/>
       <c r="E100" s="25" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="F100" s="27"/>
       <c r="G100" s="26"/>
@@ -8788,7 +8889,7 @@
       <c r="I100" s="27"/>
       <c r="J100" s="24"/>
       <c r="K100" s="27" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="L100" s="27"/>
       <c r="M100" s="27"/>
@@ -8796,7 +8897,7 @@
       <c r="O100" s="27"/>
       <c r="P100" s="27"/>
       <c r="Q100" s="25" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="R100" s="27"/>
       <c r="S100" s="27"/>
@@ -8804,7 +8905,7 @@
       <c r="U100" s="27"/>
       <c r="V100" s="24"/>
       <c r="W100" s="25" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="X100" s="27"/>
       <c r="Y100" s="27"/>
@@ -8822,13 +8923,13 @@
     </row>
     <row r="101" spans="1:36" ht="15" customHeight="1">
       <c r="A101" s="25" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="27"/>
       <c r="D101" s="27"/>
       <c r="E101" s="25" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F101" s="27"/>
       <c r="G101" s="26"/>
@@ -8836,7 +8937,7 @@
       <c r="I101" s="27"/>
       <c r="J101" s="24"/>
       <c r="K101" s="27" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="L101" s="27"/>
       <c r="M101" s="27"/>
@@ -8844,7 +8945,7 @@
       <c r="O101" s="27"/>
       <c r="P101" s="27"/>
       <c r="Q101" s="25" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="R101" s="27"/>
       <c r="S101" s="27"/>
@@ -8852,7 +8953,7 @@
       <c r="U101" s="27"/>
       <c r="V101" s="24"/>
       <c r="W101" s="25" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="X101" s="27"/>
       <c r="Y101" s="27"/>
@@ -8870,13 +8971,13 @@
     </row>
     <row r="102" spans="1:36" ht="15" customHeight="1">
       <c r="A102" s="25" t="s">
-        <v>131</v>
+        <v>307</v>
       </c>
       <c r="B102" s="26"/>
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
       <c r="E102" s="25" t="s">
-        <v>146</v>
+        <v>370</v>
       </c>
       <c r="F102" s="27"/>
       <c r="G102" s="26"/>
@@ -8884,7 +8985,7 @@
       <c r="I102" s="27"/>
       <c r="J102" s="24"/>
       <c r="K102" s="27" t="s">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="L102" s="27"/>
       <c r="M102" s="27"/>
@@ -8892,15 +8993,15 @@
       <c r="O102" s="27"/>
       <c r="P102" s="27"/>
       <c r="Q102" s="25" t="s">
-        <v>132</v>
+        <v>394</v>
       </c>
       <c r="R102" s="27"/>
       <c r="S102" s="27"/>
       <c r="T102" s="27"/>
       <c r="U102" s="27"/>
       <c r="V102" s="24"/>
-      <c r="W102" s="27" t="s">
-        <v>165</v>
+      <c r="W102" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="X102" s="27"/>
       <c r="Y102" s="27"/>
@@ -8918,13 +9019,13 @@
     </row>
     <row r="103" spans="1:36" ht="15" customHeight="1">
       <c r="A103" s="25" t="s">
-        <v>131</v>
+        <v>307</v>
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="27"/>
       <c r="D103" s="27"/>
       <c r="E103" s="25" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
       <c r="F103" s="27"/>
       <c r="G103" s="26"/>
@@ -8932,7 +9033,7 @@
       <c r="I103" s="27"/>
       <c r="J103" s="24"/>
       <c r="K103" s="27" t="s">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="L103" s="27"/>
       <c r="M103" s="27"/>
@@ -8940,15 +9041,15 @@
       <c r="O103" s="27"/>
       <c r="P103" s="27"/>
       <c r="Q103" s="25" t="s">
-        <v>133</v>
+        <v>395</v>
       </c>
       <c r="R103" s="27"/>
       <c r="S103" s="27"/>
       <c r="T103" s="27"/>
       <c r="U103" s="27"/>
       <c r="V103" s="24"/>
-      <c r="W103" s="27" t="s">
-        <v>166</v>
+      <c r="W103" s="25" t="s">
+        <v>371</v>
       </c>
       <c r="X103" s="27"/>
       <c r="Y103" s="27"/>
@@ -8966,13 +9067,13 @@
     </row>
     <row r="104" spans="1:36" ht="15" customHeight="1">
       <c r="A104" s="25" t="s">
-        <v>131</v>
+        <v>307</v>
       </c>
       <c r="B104" s="26"/>
       <c r="C104" s="27"/>
       <c r="D104" s="27"/>
       <c r="E104" s="25" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
       <c r="F104" s="27"/>
       <c r="G104" s="26"/>
@@ -8980,7 +9081,7 @@
       <c r="I104" s="27"/>
       <c r="J104" s="24"/>
       <c r="K104" s="27" t="s">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="L104" s="27"/>
       <c r="M104" s="27"/>
@@ -8988,15 +9089,15 @@
       <c r="O104" s="27"/>
       <c r="P104" s="27"/>
       <c r="Q104" s="25" t="s">
-        <v>134</v>
+        <v>396</v>
       </c>
       <c r="R104" s="27"/>
       <c r="S104" s="27"/>
       <c r="T104" s="27"/>
       <c r="U104" s="27"/>
       <c r="V104" s="24"/>
-      <c r="W104" s="27" t="s">
-        <v>167</v>
+      <c r="W104" s="25" t="s">
+        <v>372</v>
       </c>
       <c r="X104" s="27"/>
       <c r="Y104" s="27"/>
@@ -9014,13 +9115,13 @@
     </row>
     <row r="105" spans="1:36" ht="15" customHeight="1">
       <c r="A105" s="25" t="s">
-        <v>131</v>
+        <v>307</v>
       </c>
       <c r="B105" s="26"/>
       <c r="C105" s="27"/>
       <c r="D105" s="27"/>
       <c r="E105" s="25" t="s">
-        <v>149</v>
+        <v>373</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="26"/>
@@ -9028,7 +9129,7 @@
       <c r="I105" s="27"/>
       <c r="J105" s="24"/>
       <c r="K105" s="27" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="L105" s="27"/>
       <c r="M105" s="27"/>
@@ -9036,15 +9137,15 @@
       <c r="O105" s="27"/>
       <c r="P105" s="27"/>
       <c r="Q105" s="25" t="s">
-        <v>135</v>
+        <v>397</v>
       </c>
       <c r="R105" s="27"/>
       <c r="S105" s="27"/>
       <c r="T105" s="27"/>
       <c r="U105" s="27"/>
       <c r="V105" s="24"/>
-      <c r="W105" s="27" t="s">
-        <v>168</v>
+      <c r="W105" s="25" t="s">
+        <v>373</v>
       </c>
       <c r="X105" s="27"/>
       <c r="Y105" s="27"/>
@@ -9062,13 +9163,13 @@
     </row>
     <row r="106" spans="1:36" ht="15" customHeight="1">
       <c r="A106" s="25" t="s">
-        <v>131</v>
+        <v>307</v>
       </c>
       <c r="B106" s="26"/>
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
       <c r="E106" s="25" t="s">
-        <v>150</v>
+        <v>375</v>
       </c>
       <c r="F106" s="27"/>
       <c r="G106" s="26"/>
@@ -9076,7 +9177,7 @@
       <c r="I106" s="27"/>
       <c r="J106" s="24"/>
       <c r="K106" s="27" t="s">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="L106" s="27"/>
       <c r="M106" s="27"/>
@@ -9084,15 +9185,15 @@
       <c r="O106" s="27"/>
       <c r="P106" s="27"/>
       <c r="Q106" s="25" t="s">
-        <v>136</v>
+        <v>398</v>
       </c>
       <c r="R106" s="27"/>
       <c r="S106" s="27"/>
       <c r="T106" s="27"/>
       <c r="U106" s="27"/>
       <c r="V106" s="24"/>
-      <c r="W106" s="27" t="s">
-        <v>169</v>
+      <c r="W106" s="25" t="s">
+        <v>375</v>
       </c>
       <c r="X106" s="27"/>
       <c r="Y106" s="27"/>
@@ -9110,13 +9211,13 @@
     </row>
     <row r="107" spans="1:36" ht="15" customHeight="1">
       <c r="A107" s="25" t="s">
-        <v>131</v>
+        <v>307</v>
       </c>
       <c r="B107" s="26"/>
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
       <c r="E107" s="25" t="s">
-        <v>151</v>
+        <v>374</v>
       </c>
       <c r="F107" s="27"/>
       <c r="G107" s="26"/>
@@ -9124,7 +9225,7 @@
       <c r="I107" s="27"/>
       <c r="J107" s="24"/>
       <c r="K107" s="27" t="s">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="L107" s="27"/>
       <c r="M107" s="27"/>
@@ -9132,15 +9233,15 @@
       <c r="O107" s="27"/>
       <c r="P107" s="27"/>
       <c r="Q107" s="25" t="s">
-        <v>137</v>
+        <v>399</v>
       </c>
       <c r="R107" s="27"/>
       <c r="S107" s="27"/>
       <c r="T107" s="27"/>
       <c r="U107" s="27"/>
       <c r="V107" s="24"/>
-      <c r="W107" s="27" t="s">
-        <v>170</v>
+      <c r="W107" s="25" t="s">
+        <v>374</v>
       </c>
       <c r="X107" s="27"/>
       <c r="Y107" s="27"/>
@@ -9158,21 +9259,21 @@
     </row>
     <row r="108" spans="1:36" ht="15" customHeight="1">
       <c r="A108" s="25" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="27"/>
       <c r="D108" s="27"/>
       <c r="E108" s="25" t="s">
-        <v>343</v>
+        <v>143</v>
       </c>
       <c r="F108" s="27"/>
       <c r="G108" s="26"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
       <c r="J108" s="24"/>
-      <c r="K108" s="28" t="s">
-        <v>313</v>
+      <c r="K108" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="L108" s="27"/>
       <c r="M108" s="27"/>
@@ -9180,7 +9281,7 @@
       <c r="O108" s="27"/>
       <c r="P108" s="27"/>
       <c r="Q108" s="25" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="R108" s="27"/>
       <c r="S108" s="27"/>
@@ -9188,7 +9289,7 @@
       <c r="U108" s="27"/>
       <c r="V108" s="24"/>
       <c r="W108" s="27" t="s">
-        <v>328</v>
+        <v>162</v>
       </c>
       <c r="X108" s="27"/>
       <c r="Y108" s="27"/>
@@ -9206,21 +9307,21 @@
     </row>
     <row r="109" spans="1:36" ht="15" customHeight="1">
       <c r="A109" s="25" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B109" s="26"/>
       <c r="C109" s="27"/>
       <c r="D109" s="27"/>
       <c r="E109" s="25" t="s">
-        <v>344</v>
+        <v>144</v>
       </c>
       <c r="F109" s="27"/>
       <c r="G109" s="26"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
       <c r="J109" s="24"/>
-      <c r="K109" s="28" t="s">
-        <v>314</v>
+      <c r="K109" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="L109" s="27"/>
       <c r="M109" s="27"/>
@@ -9228,7 +9329,7 @@
       <c r="O109" s="27"/>
       <c r="P109" s="27"/>
       <c r="Q109" s="25" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="R109" s="27"/>
       <c r="S109" s="27"/>
@@ -9236,7 +9337,7 @@
       <c r="U109" s="27"/>
       <c r="V109" s="24"/>
       <c r="W109" s="27" t="s">
-        <v>329</v>
+        <v>163</v>
       </c>
       <c r="X109" s="27"/>
       <c r="Y109" s="27"/>
@@ -9254,21 +9355,21 @@
     </row>
     <row r="110" spans="1:36" ht="15" customHeight="1">
       <c r="A110" s="25" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B110" s="26"/>
       <c r="C110" s="27"/>
       <c r="D110" s="27"/>
       <c r="E110" s="25" t="s">
-        <v>345</v>
+        <v>145</v>
       </c>
       <c r="F110" s="27"/>
       <c r="G110" s="26"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
       <c r="J110" s="24"/>
-      <c r="K110" s="28" t="s">
-        <v>315</v>
+      <c r="K110" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="L110" s="27"/>
       <c r="M110" s="27"/>
@@ -9276,7 +9377,7 @@
       <c r="O110" s="27"/>
       <c r="P110" s="27"/>
       <c r="Q110" s="25" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="R110" s="27"/>
       <c r="S110" s="27"/>
@@ -9284,7 +9385,7 @@
       <c r="U110" s="27"/>
       <c r="V110" s="24"/>
       <c r="W110" s="27" t="s">
-        <v>330</v>
+        <v>164</v>
       </c>
       <c r="X110" s="27"/>
       <c r="Y110" s="27"/>
@@ -9302,21 +9403,21 @@
     </row>
     <row r="111" spans="1:36" ht="15" customHeight="1">
       <c r="A111" s="25" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B111" s="26"/>
       <c r="C111" s="27"/>
       <c r="D111" s="27"/>
       <c r="E111" s="25" t="s">
-        <v>346</v>
+        <v>146</v>
       </c>
       <c r="F111" s="27"/>
       <c r="G111" s="26"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
       <c r="J111" s="24"/>
-      <c r="K111" s="28" t="s">
-        <v>316</v>
+      <c r="K111" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="L111" s="27"/>
       <c r="M111" s="27"/>
@@ -9324,7 +9425,7 @@
       <c r="O111" s="27"/>
       <c r="P111" s="27"/>
       <c r="Q111" s="25" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="R111" s="27"/>
       <c r="S111" s="27"/>
@@ -9332,7 +9433,7 @@
       <c r="U111" s="27"/>
       <c r="V111" s="24"/>
       <c r="W111" s="27" t="s">
-        <v>331</v>
+        <v>165</v>
       </c>
       <c r="X111" s="27"/>
       <c r="Y111" s="27"/>
@@ -9350,21 +9451,21 @@
     </row>
     <row r="112" spans="1:36" ht="15" customHeight="1">
       <c r="A112" s="25" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B112" s="26"/>
       <c r="C112" s="27"/>
       <c r="D112" s="27"/>
       <c r="E112" s="25" t="s">
-        <v>347</v>
+        <v>147</v>
       </c>
       <c r="F112" s="27"/>
       <c r="G112" s="26"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
       <c r="J112" s="24"/>
-      <c r="K112" s="28" t="s">
-        <v>317</v>
+      <c r="K112" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="L112" s="27"/>
       <c r="M112" s="27"/>
@@ -9372,7 +9473,7 @@
       <c r="O112" s="27"/>
       <c r="P112" s="27"/>
       <c r="Q112" s="25" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="R112" s="27"/>
       <c r="S112" s="27"/>
@@ -9380,7 +9481,7 @@
       <c r="U112" s="27"/>
       <c r="V112" s="24"/>
       <c r="W112" s="27" t="s">
-        <v>332</v>
+        <v>166</v>
       </c>
       <c r="X112" s="27"/>
       <c r="Y112" s="27"/>
@@ -9398,21 +9499,21 @@
     </row>
     <row r="113" spans="1:36" ht="15" customHeight="1">
       <c r="A113" s="25" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B113" s="26"/>
       <c r="C113" s="27"/>
       <c r="D113" s="27"/>
       <c r="E113" s="25" t="s">
-        <v>348</v>
+        <v>148</v>
       </c>
       <c r="F113" s="27"/>
       <c r="G113" s="26"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
       <c r="J113" s="24"/>
-      <c r="K113" s="28" t="s">
-        <v>319</v>
+      <c r="K113" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="L113" s="27"/>
       <c r="M113" s="27"/>
@@ -9420,7 +9521,7 @@
       <c r="O113" s="27"/>
       <c r="P113" s="27"/>
       <c r="Q113" s="25" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="R113" s="27"/>
       <c r="S113" s="27"/>
@@ -9428,7 +9529,7 @@
       <c r="U113" s="27"/>
       <c r="V113" s="24"/>
       <c r="W113" s="27" t="s">
-        <v>333</v>
+        <v>167</v>
       </c>
       <c r="X113" s="27"/>
       <c r="Y113" s="27"/>
@@ -9446,13 +9547,13 @@
     </row>
     <row r="114" spans="1:36" ht="15" customHeight="1">
       <c r="A114" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B114" s="26"/>
       <c r="C114" s="27"/>
       <c r="D114" s="27"/>
       <c r="E114" s="25" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F114" s="27"/>
       <c r="G114" s="26"/>
@@ -9460,7 +9561,7 @@
       <c r="I114" s="27"/>
       <c r="J114" s="24"/>
       <c r="K114" s="28" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="L114" s="27"/>
       <c r="M114" s="27"/>
@@ -9468,7 +9569,7 @@
       <c r="O114" s="27"/>
       <c r="P114" s="27"/>
       <c r="Q114" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R114" s="27"/>
       <c r="S114" s="27"/>
@@ -9476,7 +9577,7 @@
       <c r="U114" s="27"/>
       <c r="V114" s="24"/>
       <c r="W114" s="27" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="X114" s="27"/>
       <c r="Y114" s="27"/>
@@ -9494,13 +9595,13 @@
     </row>
     <row r="115" spans="1:36" ht="15" customHeight="1">
       <c r="A115" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B115" s="26"/>
       <c r="C115" s="27"/>
       <c r="D115" s="27"/>
       <c r="E115" s="25" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F115" s="27"/>
       <c r="G115" s="26"/>
@@ -9508,7 +9609,7 @@
       <c r="I115" s="27"/>
       <c r="J115" s="24"/>
       <c r="K115" s="28" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="L115" s="27"/>
       <c r="M115" s="27"/>
@@ -9516,7 +9617,7 @@
       <c r="O115" s="27"/>
       <c r="P115" s="27"/>
       <c r="Q115" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R115" s="27"/>
       <c r="S115" s="27"/>
@@ -9524,7 +9625,7 @@
       <c r="U115" s="27"/>
       <c r="V115" s="24"/>
       <c r="W115" s="27" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="X115" s="27"/>
       <c r="Y115" s="27"/>
@@ -9542,13 +9643,13 @@
     </row>
     <row r="116" spans="1:36" ht="15" customHeight="1">
       <c r="A116" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B116" s="26"/>
       <c r="C116" s="27"/>
       <c r="D116" s="27"/>
       <c r="E116" s="25" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F116" s="27"/>
       <c r="G116" s="26"/>
@@ -9556,7 +9657,7 @@
       <c r="I116" s="27"/>
       <c r="J116" s="24"/>
       <c r="K116" s="28" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="L116" s="27"/>
       <c r="M116" s="27"/>
@@ -9564,7 +9665,7 @@
       <c r="O116" s="27"/>
       <c r="P116" s="27"/>
       <c r="Q116" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R116" s="27"/>
       <c r="S116" s="27"/>
@@ -9572,7 +9673,7 @@
       <c r="U116" s="27"/>
       <c r="V116" s="24"/>
       <c r="W116" s="27" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="X116" s="27"/>
       <c r="Y116" s="27"/>
@@ -9590,13 +9691,13 @@
     </row>
     <row r="117" spans="1:36" ht="15" customHeight="1">
       <c r="A117" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B117" s="26"/>
       <c r="C117" s="27"/>
       <c r="D117" s="27"/>
       <c r="E117" s="25" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F117" s="27"/>
       <c r="G117" s="26"/>
@@ -9604,7 +9705,7 @@
       <c r="I117" s="27"/>
       <c r="J117" s="24"/>
       <c r="K117" s="28" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="L117" s="27"/>
       <c r="M117" s="27"/>
@@ -9612,7 +9713,7 @@
       <c r="O117" s="27"/>
       <c r="P117" s="27"/>
       <c r="Q117" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R117" s="27"/>
       <c r="S117" s="27"/>
@@ -9620,7 +9721,7 @@
       <c r="U117" s="27"/>
       <c r="V117" s="24"/>
       <c r="W117" s="27" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="X117" s="27"/>
       <c r="Y117" s="27"/>
@@ -9638,13 +9739,13 @@
     </row>
     <row r="118" spans="1:36" ht="15" customHeight="1">
       <c r="A118" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B118" s="26"/>
       <c r="C118" s="27"/>
       <c r="D118" s="27"/>
       <c r="E118" s="25" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F118" s="27"/>
       <c r="G118" s="26"/>
@@ -9652,7 +9753,7 @@
       <c r="I118" s="27"/>
       <c r="J118" s="24"/>
       <c r="K118" s="28" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="L118" s="27"/>
       <c r="M118" s="27"/>
@@ -9660,7 +9761,7 @@
       <c r="O118" s="27"/>
       <c r="P118" s="27"/>
       <c r="Q118" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R118" s="27"/>
       <c r="S118" s="27"/>
@@ -9668,7 +9769,7 @@
       <c r="U118" s="27"/>
       <c r="V118" s="24"/>
       <c r="W118" s="27" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="X118" s="27"/>
       <c r="Y118" s="27"/>
@@ -9686,13 +9787,13 @@
     </row>
     <row r="119" spans="1:36" ht="15" customHeight="1">
       <c r="A119" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B119" s="26"/>
       <c r="C119" s="27"/>
       <c r="D119" s="27"/>
       <c r="E119" s="25" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F119" s="27"/>
       <c r="G119" s="26"/>
@@ -9700,7 +9801,7 @@
       <c r="I119" s="27"/>
       <c r="J119" s="24"/>
       <c r="K119" s="28" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="L119" s="27"/>
       <c r="M119" s="27"/>
@@ -9708,7 +9809,7 @@
       <c r="O119" s="27"/>
       <c r="P119" s="27"/>
       <c r="Q119" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R119" s="27"/>
       <c r="S119" s="27"/>
@@ -9716,7 +9817,7 @@
       <c r="U119" s="27"/>
       <c r="V119" s="24"/>
       <c r="W119" s="27" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="X119" s="27"/>
       <c r="Y119" s="27"/>
@@ -9734,13 +9835,13 @@
     </row>
     <row r="120" spans="1:36" ht="15" customHeight="1">
       <c r="A120" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B120" s="26"/>
       <c r="C120" s="27"/>
       <c r="D120" s="27"/>
       <c r="E120" s="25" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F120" s="27"/>
       <c r="G120" s="26"/>
@@ -9748,7 +9849,7 @@
       <c r="I120" s="27"/>
       <c r="J120" s="24"/>
       <c r="K120" s="28" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="L120" s="27"/>
       <c r="M120" s="27"/>
@@ -9756,7 +9857,7 @@
       <c r="O120" s="27"/>
       <c r="P120" s="27"/>
       <c r="Q120" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R120" s="27"/>
       <c r="S120" s="27"/>
@@ -9764,7 +9865,7 @@
       <c r="U120" s="27"/>
       <c r="V120" s="24"/>
       <c r="W120" s="27" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="X120" s="27"/>
       <c r="Y120" s="27"/>
@@ -9782,13 +9883,13 @@
     </row>
     <row r="121" spans="1:36" ht="15" customHeight="1">
       <c r="A121" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B121" s="26"/>
       <c r="C121" s="27"/>
       <c r="D121" s="27"/>
       <c r="E121" s="25" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="F121" s="27"/>
       <c r="G121" s="26"/>
@@ -9796,7 +9897,7 @@
       <c r="I121" s="27"/>
       <c r="J121" s="24"/>
       <c r="K121" s="28" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L121" s="27"/>
       <c r="M121" s="27"/>
@@ -9804,7 +9905,7 @@
       <c r="O121" s="27"/>
       <c r="P121" s="27"/>
       <c r="Q121" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R121" s="27"/>
       <c r="S121" s="27"/>
@@ -9812,7 +9913,7 @@
       <c r="U121" s="27"/>
       <c r="V121" s="24"/>
       <c r="W121" s="27" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="X121" s="27"/>
       <c r="Y121" s="27"/>
@@ -9830,13 +9931,13 @@
     </row>
     <row r="122" spans="1:36" ht="15" customHeight="1">
       <c r="A122" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B122" s="26"/>
       <c r="C122" s="27"/>
       <c r="D122" s="27"/>
       <c r="E122" s="25" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F122" s="27"/>
       <c r="G122" s="26"/>
@@ -9844,7 +9945,7 @@
       <c r="I122" s="27"/>
       <c r="J122" s="24"/>
       <c r="K122" s="28" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="L122" s="27"/>
       <c r="M122" s="27"/>
@@ -9852,7 +9953,7 @@
       <c r="O122" s="27"/>
       <c r="P122" s="27"/>
       <c r="Q122" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R122" s="27"/>
       <c r="S122" s="27"/>
@@ -9860,7 +9961,7 @@
       <c r="U122" s="27"/>
       <c r="V122" s="24"/>
       <c r="W122" s="27" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="X122" s="27"/>
       <c r="Y122" s="27"/>
@@ -9877,29 +9978,39 @@
       <c r="AJ122" s="24"/>
     </row>
     <row r="123" spans="1:36" ht="15" customHeight="1">
-      <c r="A123" s="25"/>
+      <c r="A123" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="B123" s="26"/>
       <c r="C123" s="27"/>
       <c r="D123" s="27"/>
-      <c r="E123" s="25"/>
+      <c r="E123" s="25" t="s">
+        <v>347</v>
+      </c>
       <c r="F123" s="27"/>
       <c r="G123" s="26"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
       <c r="J123" s="24"/>
-      <c r="K123" s="27"/>
+      <c r="K123" s="28" t="s">
+        <v>317</v>
+      </c>
       <c r="L123" s="27"/>
       <c r="M123" s="27"/>
       <c r="N123" s="27"/>
       <c r="O123" s="27"/>
       <c r="P123" s="27"/>
-      <c r="Q123" s="25"/>
+      <c r="Q123" s="25" t="s">
+        <v>157</v>
+      </c>
       <c r="R123" s="27"/>
       <c r="S123" s="27"/>
       <c r="T123" s="27"/>
       <c r="U123" s="27"/>
       <c r="V123" s="24"/>
-      <c r="W123" s="27"/>
+      <c r="W123" s="27" t="s">
+        <v>332</v>
+      </c>
       <c r="X123" s="27"/>
       <c r="Y123" s="27"/>
       <c r="Z123" s="27"/>
@@ -9915,29 +10026,39 @@
       <c r="AJ123" s="24"/>
     </row>
     <row r="124" spans="1:36" ht="15" customHeight="1">
-      <c r="A124" s="25"/>
+      <c r="A124" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="B124" s="26"/>
       <c r="C124" s="27"/>
       <c r="D124" s="27"/>
-      <c r="E124" s="25"/>
+      <c r="E124" s="25" t="s">
+        <v>348</v>
+      </c>
       <c r="F124" s="27"/>
       <c r="G124" s="26"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
       <c r="J124" s="24"/>
-      <c r="K124" s="27"/>
+      <c r="K124" s="28" t="s">
+        <v>318</v>
+      </c>
       <c r="L124" s="27"/>
       <c r="M124" s="27"/>
       <c r="N124" s="27"/>
       <c r="O124" s="27"/>
       <c r="P124" s="27"/>
-      <c r="Q124" s="25"/>
+      <c r="Q124" s="25" t="s">
+        <v>157</v>
+      </c>
       <c r="R124" s="27"/>
       <c r="S124" s="27"/>
       <c r="T124" s="27"/>
       <c r="U124" s="27"/>
       <c r="V124" s="24"/>
-      <c r="W124" s="27"/>
+      <c r="W124" s="27" t="s">
+        <v>333</v>
+      </c>
       <c r="X124" s="27"/>
       <c r="Y124" s="27"/>
       <c r="Z124" s="27"/>
@@ -9953,29 +10074,39 @@
       <c r="AJ124" s="24"/>
     </row>
     <row r="125" spans="1:36" ht="15" customHeight="1">
-      <c r="A125" s="25"/>
+      <c r="A125" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="B125" s="26"/>
       <c r="C125" s="27"/>
       <c r="D125" s="27"/>
-      <c r="E125" s="25"/>
+      <c r="E125" s="25" t="s">
+        <v>349</v>
+      </c>
       <c r="F125" s="27"/>
       <c r="G125" s="26"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
       <c r="J125" s="24"/>
-      <c r="K125" s="27"/>
+      <c r="K125" s="28" t="s">
+        <v>319</v>
+      </c>
       <c r="L125" s="27"/>
       <c r="M125" s="27"/>
       <c r="N125" s="27"/>
       <c r="O125" s="27"/>
       <c r="P125" s="27"/>
-      <c r="Q125" s="25"/>
+      <c r="Q125" s="25" t="s">
+        <v>157</v>
+      </c>
       <c r="R125" s="27"/>
       <c r="S125" s="27"/>
       <c r="T125" s="27"/>
       <c r="U125" s="27"/>
       <c r="V125" s="24"/>
-      <c r="W125" s="27"/>
+      <c r="W125" s="27" t="s">
+        <v>334</v>
+      </c>
       <c r="X125" s="27"/>
       <c r="Y125" s="27"/>
       <c r="Z125" s="27"/>
@@ -9991,29 +10122,39 @@
       <c r="AJ125" s="24"/>
     </row>
     <row r="126" spans="1:36" ht="15" customHeight="1">
-      <c r="A126" s="25"/>
+      <c r="A126" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="B126" s="26"/>
       <c r="C126" s="27"/>
       <c r="D126" s="27"/>
-      <c r="E126" s="25"/>
+      <c r="E126" s="25" t="s">
+        <v>350</v>
+      </c>
       <c r="F126" s="27"/>
       <c r="G126" s="26"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
       <c r="J126" s="24"/>
-      <c r="K126" s="27"/>
+      <c r="K126" s="28" t="s">
+        <v>320</v>
+      </c>
       <c r="L126" s="27"/>
       <c r="M126" s="27"/>
       <c r="N126" s="27"/>
       <c r="O126" s="27"/>
       <c r="P126" s="27"/>
-      <c r="Q126" s="25"/>
+      <c r="Q126" s="25" t="s">
+        <v>157</v>
+      </c>
       <c r="R126" s="27"/>
       <c r="S126" s="27"/>
       <c r="T126" s="27"/>
       <c r="U126" s="27"/>
       <c r="V126" s="24"/>
-      <c r="W126" s="27"/>
+      <c r="W126" s="27" t="s">
+        <v>335</v>
+      </c>
       <c r="X126" s="27"/>
       <c r="Y126" s="27"/>
       <c r="Z126" s="27"/>
@@ -10029,29 +10170,39 @@
       <c r="AJ126" s="24"/>
     </row>
     <row r="127" spans="1:36" ht="15" customHeight="1">
-      <c r="A127" s="25"/>
+      <c r="A127" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="B127" s="26"/>
       <c r="C127" s="27"/>
       <c r="D127" s="27"/>
-      <c r="E127" s="25"/>
+      <c r="E127" s="25" t="s">
+        <v>351</v>
+      </c>
       <c r="F127" s="27"/>
       <c r="G127" s="26"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
       <c r="J127" s="24"/>
-      <c r="K127" s="27"/>
+      <c r="K127" s="28" t="s">
+        <v>321</v>
+      </c>
       <c r="L127" s="27"/>
       <c r="M127" s="27"/>
       <c r="N127" s="27"/>
       <c r="O127" s="27"/>
       <c r="P127" s="27"/>
-      <c r="Q127" s="25"/>
+      <c r="Q127" s="25" t="s">
+        <v>157</v>
+      </c>
       <c r="R127" s="27"/>
       <c r="S127" s="27"/>
       <c r="T127" s="27"/>
       <c r="U127" s="27"/>
       <c r="V127" s="24"/>
-      <c r="W127" s="27"/>
+      <c r="W127" s="27" t="s">
+        <v>336</v>
+      </c>
       <c r="X127" s="27"/>
       <c r="Y127" s="27"/>
       <c r="Z127" s="27"/>
@@ -10067,29 +10218,39 @@
       <c r="AJ127" s="24"/>
     </row>
     <row r="128" spans="1:36" ht="15" customHeight="1">
-      <c r="A128" s="25"/>
+      <c r="A128" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="B128" s="26"/>
       <c r="C128" s="27"/>
       <c r="D128" s="27"/>
-      <c r="E128" s="25"/>
+      <c r="E128" s="25" t="s">
+        <v>352</v>
+      </c>
       <c r="F128" s="27"/>
       <c r="G128" s="26"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
       <c r="J128" s="24"/>
-      <c r="K128" s="27"/>
+      <c r="K128" s="28" t="s">
+        <v>322</v>
+      </c>
       <c r="L128" s="27"/>
       <c r="M128" s="27"/>
       <c r="N128" s="27"/>
       <c r="O128" s="27"/>
       <c r="P128" s="27"/>
-      <c r="Q128" s="25"/>
+      <c r="Q128" s="25" t="s">
+        <v>157</v>
+      </c>
       <c r="R128" s="27"/>
       <c r="S128" s="27"/>
       <c r="T128" s="27"/>
       <c r="U128" s="27"/>
       <c r="V128" s="24"/>
-      <c r="W128" s="27"/>
+      <c r="W128" s="27" t="s">
+        <v>337</v>
+      </c>
       <c r="X128" s="27"/>
       <c r="Y128" s="27"/>
       <c r="Z128" s="27"/>
@@ -10104,199 +10265,9 @@
       <c r="AI128" s="27"/>
       <c r="AJ128" s="24"/>
     </row>
-    <row r="129" spans="1:36" ht="15" customHeight="1">
-      <c r="A129" s="25"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="27"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="26"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="24"/>
-      <c r="K129" s="27"/>
-      <c r="L129" s="27"/>
-      <c r="M129" s="27"/>
-      <c r="N129" s="27"/>
-      <c r="O129" s="27"/>
-      <c r="P129" s="27"/>
-      <c r="Q129" s="25"/>
-      <c r="R129" s="27"/>
-      <c r="S129" s="27"/>
-      <c r="T129" s="27"/>
-      <c r="U129" s="27"/>
-      <c r="V129" s="24"/>
-      <c r="W129" s="27"/>
-      <c r="X129" s="27"/>
-      <c r="Y129" s="27"/>
-      <c r="Z129" s="27"/>
-      <c r="AA129" s="27"/>
-      <c r="AB129" s="27"/>
-      <c r="AC129" s="27"/>
-      <c r="AD129" s="27"/>
-      <c r="AE129" s="27"/>
-      <c r="AF129" s="27"/>
-      <c r="AG129" s="27"/>
-      <c r="AH129" s="27"/>
-      <c r="AI129" s="27"/>
-      <c r="AJ129" s="24"/>
-    </row>
-    <row r="130" spans="1:36" ht="15" customHeight="1">
-      <c r="A130" s="25"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="27"/>
-      <c r="D130" s="27"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="26"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
-      <c r="J130" s="24"/>
-      <c r="K130" s="27"/>
-      <c r="L130" s="27"/>
-      <c r="M130" s="27"/>
-      <c r="N130" s="27"/>
-      <c r="O130" s="27"/>
-      <c r="P130" s="27"/>
-      <c r="Q130" s="25"/>
-      <c r="R130" s="27"/>
-      <c r="S130" s="27"/>
-      <c r="T130" s="27"/>
-      <c r="U130" s="27"/>
-      <c r="V130" s="24"/>
-      <c r="W130" s="27"/>
-      <c r="X130" s="27"/>
-      <c r="Y130" s="27"/>
-      <c r="Z130" s="27"/>
-      <c r="AA130" s="27"/>
-      <c r="AB130" s="27"/>
-      <c r="AC130" s="27"/>
-      <c r="AD130" s="27"/>
-      <c r="AE130" s="27"/>
-      <c r="AF130" s="27"/>
-      <c r="AG130" s="27"/>
-      <c r="AH130" s="27"/>
-      <c r="AI130" s="27"/>
-      <c r="AJ130" s="24"/>
-    </row>
-    <row r="131" spans="1:36" ht="15" customHeight="1">
-      <c r="A131" s="25"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="25"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="24"/>
-      <c r="K131" s="27"/>
-      <c r="L131" s="27"/>
-      <c r="M131" s="27"/>
-      <c r="N131" s="27"/>
-      <c r="O131" s="27"/>
-      <c r="P131" s="27"/>
-      <c r="Q131" s="25"/>
-      <c r="R131" s="27"/>
-      <c r="S131" s="27"/>
-      <c r="T131" s="27"/>
-      <c r="U131" s="27"/>
-      <c r="V131" s="24"/>
-      <c r="W131" s="27"/>
-      <c r="X131" s="27"/>
-      <c r="Y131" s="27"/>
-      <c r="Z131" s="27"/>
-      <c r="AA131" s="27"/>
-      <c r="AB131" s="27"/>
-      <c r="AC131" s="27"/>
-      <c r="AD131" s="27"/>
-      <c r="AE131" s="27"/>
-      <c r="AF131" s="27"/>
-      <c r="AG131" s="27"/>
-      <c r="AH131" s="27"/>
-      <c r="AI131" s="27"/>
-      <c r="AJ131" s="24"/>
-    </row>
-    <row r="132" spans="1:36" ht="15" customHeight="1">
-      <c r="A132" s="25"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="24"/>
-      <c r="K132" s="27"/>
-      <c r="L132" s="27"/>
-      <c r="M132" s="27"/>
-      <c r="N132" s="27"/>
-      <c r="O132" s="27"/>
-      <c r="P132" s="27"/>
-      <c r="Q132" s="25"/>
-      <c r="R132" s="27"/>
-      <c r="S132" s="27"/>
-      <c r="T132" s="27"/>
-      <c r="U132" s="27"/>
-      <c r="V132" s="24"/>
-      <c r="W132" s="27"/>
-      <c r="X132" s="27"/>
-      <c r="Y132" s="27"/>
-      <c r="Z132" s="27"/>
-      <c r="AA132" s="27"/>
-      <c r="AB132" s="27"/>
-      <c r="AC132" s="27"/>
-      <c r="AD132" s="27"/>
-      <c r="AE132" s="27"/>
-      <c r="AF132" s="27"/>
-      <c r="AG132" s="27"/>
-      <c r="AH132" s="27"/>
-      <c r="AI132" s="27"/>
-      <c r="AJ132" s="24"/>
-    </row>
-    <row r="133" spans="1:36" ht="15" customHeight="1">
-      <c r="A133" s="25"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="27"/>
-      <c r="D133" s="24"/>
-      <c r="E133" s="25"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="24"/>
-      <c r="K133" s="25"/>
-      <c r="L133" s="27"/>
-      <c r="M133" s="27"/>
-      <c r="N133" s="27"/>
-      <c r="O133" s="27"/>
-      <c r="P133" s="27"/>
-      <c r="Q133" s="25"/>
-      <c r="R133" s="27"/>
-      <c r="S133" s="27"/>
-      <c r="T133" s="27"/>
-      <c r="U133" s="27"/>
-      <c r="V133" s="24"/>
-      <c r="W133" s="27"/>
-      <c r="X133" s="27"/>
-      <c r="Y133" s="27"/>
-      <c r="Z133" s="27"/>
-      <c r="AA133" s="27"/>
-      <c r="AB133" s="27"/>
-      <c r="AC133" s="27"/>
-      <c r="AD133" s="27"/>
-      <c r="AE133" s="27"/>
-      <c r="AF133" s="27"/>
-      <c r="AG133" s="27"/>
-      <c r="AH133" s="27"/>
-      <c r="AI133" s="27"/>
-      <c r="AJ133" s="24"/>
-    </row>
-    <row r="134" spans="1:36" ht="15" customHeight="1">
-      <c r="B134" s="17"/>
-      <c r="G134" s="17"/>
+    <row r="129" spans="2:7" ht="15" customHeight="1">
+      <c r="B129" s="17"/>
+      <c r="G129" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:AJ3">
@@ -10333,11 +10304,11 @@
     <filterColumn colId="34" showButton="0"/>
   </autoFilter>
   <mergeCells count="18">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I2:X2"/>
-    <mergeCell ref="I1:X1"/>
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="W3:AJ3"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AG2:AJ2"/>
     <mergeCell ref="AA1:AD1"/>
@@ -10346,11 +10317,11 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="W3:AJ3"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I2:X2"/>
+    <mergeCell ref="I1:X1"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
